--- a/SDS02_派工第二階段專案計畫表V3.xlsx
+++ b/SDS02_派工第二階段專案計畫表V3.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="146">
   <si>
     <t>BAC</t>
   </si>
@@ -377,124 +377,200 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>功能權限修改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDS.5.1.2設備組建(新品倉)</t>
+  </si>
+  <si>
+    <t>SDS.5.2.1 新開店基本資產設定</t>
+  </si>
+  <si>
+    <t>SDS.5.2.2 新開店資料維護</t>
+  </si>
+  <si>
+    <t>SDS.5.3.1新料件/設備出庫</t>
+  </si>
+  <si>
+    <t>SDS.5.3.2閒置設備/資產出庫</t>
+  </si>
+  <si>
+    <t>SDS.5.4.1閒置設備/資產檢測</t>
+  </si>
+  <si>
+    <t>SDS.5.4.3設備/資產除帳</t>
+  </si>
+  <si>
+    <t>SDS.5.6.1維修費用建檔</t>
+  </si>
+  <si>
+    <t>SDS.5.6.4修回驗收</t>
+  </si>
+  <si>
+    <t>SDS.5.7.1料件廢棄</t>
+  </si>
+  <si>
+    <t>SDS.5.8.1庫存資料維護</t>
+  </si>
+  <si>
+    <t>SDS.5.8.4店舖資產組建</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDS.5.1.1料件入庫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>哲維</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>敏軒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>俊融</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>韋毅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫庭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDS.1.2.0使用者管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/9會議2H*3人、報表及權限Schedule、SDS.1.2.0使用者管理討論</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>子群</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  └產出維修費用異動表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求增加專案名稱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDS.5.6.1維修費用建檔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加異動歷程查詢及異動報表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>調整報表筆數、文字大小</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加兩個報表列印功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有功能權限</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求變更，所有功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>新增時日期預設當日系統日</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>功能權限修改</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>V</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SDS.5.1.2設備組建(新品倉)</t>
-  </si>
-  <si>
-    <t>SDS.5.2.1 新開店基本資產設定</t>
-  </si>
-  <si>
     <t>SDS.5.2.2 新開店資料維護</t>
-  </si>
-  <si>
-    <t>SDS.5.3.1新料件/設備出庫</t>
-  </si>
-  <si>
-    <t>SDS.5.3.2閒置設備/資產出庫</t>
-  </si>
-  <si>
-    <t>SDS.5.4.1閒置設備/資產檢測</t>
-  </si>
-  <si>
-    <t>SDS.5.4.3設備/資產除帳</t>
-  </si>
-  <si>
-    <t>SDS.5.6.1維修費用建檔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  └產出繳回報表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  └產出匯出明細</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改功能表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>定保單</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加刪除功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加匯出繳回報表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加匯出明細表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求變更，切割第一與第二階段功能表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加一般倉的新品退貨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本資料匯入程式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>將富士通提供之資料，以程式方式將資料轉成符合第二階段之格式並匯入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加檢測可用於新品倉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加送修可用於新品倉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加確修可用於新品倉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>SDS.5.6.4修回驗收</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加驗收可用於新品倉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>SDS.5.7.1料件廢棄</t>
-  </si>
-  <si>
-    <t>SDS.5.8.1庫存資料維護</t>
-  </si>
-  <si>
-    <t>SDS.5.8.4店舖資產組建</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SDS.5.8.5店舖設備查詢</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SDS.5.1.1料件入庫</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>哲維</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>敏軒</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>俊融</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>韋毅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>紫庭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SDS.1.2.0使用者管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2/9會議2H*3人、報表及權限Schedule、SDS.1.2.0使用者管理討論</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>子群</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  └產出維修費用異動表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>需求增加專案名稱</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SDS.5.6.1維修費用建檔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加異動歷程查詢及異動報表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>調整報表筆數、文字大小</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加兩個報表列印功能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>需求變更，工時分配至各功能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>工時分配至各功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加廢棄可用於新品倉</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -511,7 +587,7 @@
     <numFmt numFmtId="181" formatCode="00"/>
     <numFmt numFmtId="182" formatCode="mm/dd;@"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -663,14 +739,6 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="細明體"/>
-      <family val="3"/>
-      <charset val="136"/>
-    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -710,7 +778,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -1170,6 +1238,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1198,7 +1275,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="224">
+  <cellXfs count="216">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1627,9 +1704,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1791,20 +1865,8 @@
     <xf numFmtId="177" fontId="5" fillId="0" borderId="26" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="180" fontId="5" fillId="0" borderId="8" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="13" fillId="3" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1827,9 +1889,6 @@
     <xf numFmtId="176" fontId="13" fillId="0" borderId="8" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1845,12 +1904,6 @@
     <xf numFmtId="180" fontId="13" fillId="0" borderId="23" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="7" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="23" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1866,26 +1919,26 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="13" fillId="0" borderId="6" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="33" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -2181,10 +2234,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N156"/>
+  <dimension ref="A1:N163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T98" sqref="T98"/>
+    <sheetView tabSelected="1" topLeftCell="C24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M50" sqref="M50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -2196,17 +2249,17 @@
     <col min="6" max="6" width="7.125" style="2" customWidth="1"/>
     <col min="7" max="7" width="7.125" style="102" customWidth="1"/>
     <col min="8" max="12" width="7.125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="31.625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="32.625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="144" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="140"/>
-      <c r="B1" s="140"/>
-      <c r="C1" s="141" t="s">
+    <row r="1" spans="1:13" s="143" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="139"/>
+      <c r="B1" s="139"/>
+      <c r="C1" s="140" t="s">
         <v>50</v>
       </c>
       <c r="D1"/>
-      <c r="E1" s="142"/>
+      <c r="E1" s="141"/>
       <c r="F1" s="3" t="s">
         <v>51</v>
       </c>
@@ -2222,118 +2275,118 @@
       <c r="J1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="143" t="s">
+      <c r="K1" s="142" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="143" t="s">
+      <c r="L1" s="142" t="s">
         <v>5</v>
       </c>
       <c r="M1" s="4"/>
     </row>
-    <row r="2" spans="1:13" s="144" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="140"/>
-      <c r="B2" s="140"/>
-      <c r="C2" s="145"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="142"/>
-      <c r="F2" s="147" t="s">
+    <row r="2" spans="1:13" s="143" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="139"/>
+      <c r="B2" s="139"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="141"/>
+      <c r="F2" s="146" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="148">
+      <c r="G2" s="147">
         <f>SUM(G3:G4)</f>
-        <v>309</v>
-      </c>
-      <c r="H2" s="148">
+        <v>303</v>
+      </c>
+      <c r="H2" s="147">
         <f ca="1">SUM(H3:H4)</f>
-        <v>0</v>
-      </c>
-      <c r="I2" s="148">
+        <v>287</v>
+      </c>
+      <c r="I2" s="147">
         <f>SUM(I3:I4)</f>
         <v>0</v>
       </c>
-      <c r="J2" s="148">
+      <c r="J2" s="147">
         <f>SUM(J3:J4)</f>
         <v>0</v>
       </c>
-      <c r="K2" s="148" t="e">
+      <c r="K2" s="147">
         <f ca="1">I2/H2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L2" s="148" t="e">
+        <v>0</v>
+      </c>
+      <c r="L2" s="147" t="e">
         <f>I2/J2</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M2" s="149"/>
-    </row>
-    <row r="3" spans="1:13" s="144" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="140"/>
-      <c r="B3" s="140"/>
-      <c r="C3" s="142"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="142"/>
-      <c r="F3" s="147" t="s">
+      <c r="M2" s="148"/>
+    </row>
+    <row r="3" spans="1:13" s="143" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="139"/>
+      <c r="B3" s="139"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="141"/>
+      <c r="F3" s="146" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="148">
-        <f>SUMIFS($G$7:$G$64357,$A$7:$A$64357,"&lt;&gt;")</f>
-        <v>137</v>
-      </c>
-      <c r="H3" s="148">
-        <f ca="1">SUMIFS($G$7:$G$64357,$A$7:$A$64357,"&lt;&gt;",$I$7:$I$64357,"&lt;"&amp;TODAY())</f>
+      <c r="G3" s="147">
+        <f>SUMIFS($G$7:$G$64364,$A$7:$A$64364,"&lt;&gt;")</f>
+        <v>134</v>
+      </c>
+      <c r="H3" s="147">
+        <f ca="1">SUMIFS($G$7:$G$64364,$A$7:$A$64364,"&lt;&gt;",$I$7:$I$64364,"&lt;"&amp;TODAY())</f>
+        <v>126</v>
+      </c>
+      <c r="I3" s="147">
+        <f>SUMIFS($G$7:$G$64364,$A$7:$A$64364,"&lt;&gt;",$L$7:$L$64364,"&lt;&gt;")</f>
         <v>0</v>
       </c>
-      <c r="I3" s="148">
-        <f>SUMIFS($G$7:$G$64357,$A$7:$A$64357,"&lt;&gt;",$L$7:$L$64357,"&lt;&gt;")</f>
+      <c r="J3" s="147">
+        <f>SUMIFS($J$7:$J$64364,$A$7:$A$64364,"&lt;&gt;",$L$7:$L$64364,"&lt;&gt;")</f>
         <v>0</v>
       </c>
-      <c r="J3" s="148">
-        <f>SUMIFS($J$7:$J$64357,$A$7:$A$64357,"&lt;&gt;",$L$7:$L$64357,"&lt;&gt;")</f>
+      <c r="K3" s="147">
+        <f ca="1">I3/H3</f>
         <v>0</v>
       </c>
-      <c r="K3" s="148" t="e">
-        <f ca="1">I3/H3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L3" s="148" t="e">
+      <c r="L3" s="147" t="e">
         <f>I3/J3</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M3" s="149"/>
-    </row>
-    <row r="4" spans="1:13" s="144" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="140"/>
-      <c r="B4" s="140"/>
-      <c r="C4" s="142"/>
-      <c r="D4" s="142"/>
-      <c r="E4" s="142"/>
-      <c r="F4" s="147" t="s">
+      <c r="M3" s="148"/>
+    </row>
+    <row r="4" spans="1:13" s="143" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="139"/>
+      <c r="B4" s="139"/>
+      <c r="C4" s="141"/>
+      <c r="D4" s="141"/>
+      <c r="E4" s="141"/>
+      <c r="F4" s="146" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="148">
-        <f>SUMIFS($G$7:$G$64357,$B$7:$B$64357,"&lt;&gt;")</f>
-        <v>172</v>
-      </c>
-      <c r="H4" s="148">
-        <f ca="1">SUMIFS($G$7:$G$64357,$B$7:$B$64357,"&lt;&gt;",$I$7:$I$64357,"&lt;"&amp;TODAY())</f>
+      <c r="G4" s="147">
+        <f>SUMIFS($G$7:$G$64364,$B$7:$B$64364,"&lt;&gt;")</f>
+        <v>169</v>
+      </c>
+      <c r="H4" s="147">
+        <f ca="1">SUMIFS($G$7:$G$64364,$B$7:$B$64364,"&lt;&gt;",$I$7:$I$64364,"&lt;"&amp;TODAY())</f>
+        <v>161</v>
+      </c>
+      <c r="I4" s="147">
+        <f>SUMIFS($G$7:$G$64364,$B$7:$B$64364,"&lt;&gt;",$L$7:$L$64364,"&lt;&gt;")</f>
         <v>0</v>
       </c>
-      <c r="I4" s="148">
-        <f>SUMIFS($G$7:$G$64357,$B$7:$B$64357,"&lt;&gt;",$L$7:$L$64357,"&lt;&gt;")</f>
+      <c r="J4" s="147">
+        <f>SUMIFS($J$7:$J$64364,$B$7:$B$64364,"&lt;&gt;",$L$7:$L$64364,"&lt;&gt;")</f>
         <v>0</v>
       </c>
-      <c r="J4" s="148">
-        <f>SUMIFS($J$7:$J$64357,$B$7:$B$64357,"&lt;&gt;",$L$7:$L$64357,"&lt;&gt;")</f>
+      <c r="K4" s="147">
+        <f ca="1">I4/H4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="148" t="e">
-        <f ca="1">I4/H4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L4" s="148" t="e">
+      <c r="L4" s="147" t="e">
         <f>I4/J4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M4" s="149"/>
+      <c r="M4" s="148"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C5" s="123" t="s">
@@ -2348,16 +2401,16 @@
       <c r="F5" s="126" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="221" t="s">
+      <c r="G5" s="210" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="222"/>
-      <c r="I5" s="223"/>
-      <c r="J5" s="221" t="s">
+      <c r="H5" s="211"/>
+      <c r="I5" s="212"/>
+      <c r="J5" s="210" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="222"/>
-      <c r="L5" s="223"/>
+      <c r="K5" s="211"/>
+      <c r="L5" s="212"/>
       <c r="M5" s="127" t="s">
         <v>13</v>
       </c>
@@ -2447,7 +2500,7 @@
       <c r="L9" s="32"/>
       <c r="M9" s="33"/>
     </row>
-    <row r="10" spans="1:13" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C10" s="5">
         <v>1</v>
       </c>
@@ -2455,23 +2508,23 @@
         <v>42</v>
       </c>
       <c r="E10" s="35"/>
-      <c r="F10" s="150" t="s">
-        <v>115</v>
-      </c>
-      <c r="G10" s="195">
+      <c r="F10" s="149" t="s">
+        <v>113</v>
+      </c>
+      <c r="G10" s="9">
         <v>25</v>
       </c>
       <c r="H10" s="10">
         <v>42775</v>
       </c>
       <c r="I10" s="11">
-        <v>42783</v>
+        <v>42784</v>
       </c>
       <c r="J10" s="12"/>
       <c r="K10" s="13"/>
       <c r="L10" s="14"/>
-      <c r="M10" s="196" t="s">
-        <v>117</v>
+      <c r="M10" s="15" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="110" customFormat="1" ht="17.25" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2484,14 +2537,14 @@
       <c r="E11" s="112" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="151"/>
+      <c r="F11" s="150"/>
       <c r="G11" s="106"/>
       <c r="H11" s="66"/>
       <c r="I11" s="107"/>
       <c r="J11" s="108"/>
       <c r="K11" s="67"/>
       <c r="L11" s="68"/>
-      <c r="M11" s="139" t="s">
+      <c r="M11" s="109" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2505,7 +2558,7 @@
       <c r="E12" s="114" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="151"/>
+      <c r="F12" s="150"/>
       <c r="G12" s="106"/>
       <c r="H12" s="66"/>
       <c r="I12" s="107"/>
@@ -2524,7 +2577,7 @@
       <c r="E13" s="114" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="151"/>
+      <c r="F13" s="150"/>
       <c r="G13" s="106"/>
       <c r="H13" s="66"/>
       <c r="I13" s="107"/>
@@ -2533,7 +2586,7 @@
       <c r="L13" s="68"/>
       <c r="M13" s="109"/>
     </row>
-    <row r="14" spans="1:13" ht="9.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="17.25" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
@@ -2561,7 +2614,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="8"/>
       <c r="G15" s="9">
-        <f>SUM(G16:G49)</f>
+        <f>SUM(G16:G56)</f>
         <v>36.5</v>
       </c>
       <c r="H15" s="10"/>
@@ -2636,13 +2689,13 @@
         <v>22</v>
       </c>
       <c r="C19" s="43"/>
-      <c r="D19" s="181">
+      <c r="D19" s="180">
         <v>4</v>
       </c>
-      <c r="E19" s="178" t="s">
+      <c r="E19" s="177" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="156" t="s">
+      <c r="F19" s="155" t="s">
         <v>76</v>
       </c>
       <c r="G19" s="46">
@@ -2664,13 +2717,13 @@
         <v>22</v>
       </c>
       <c r="C20" s="43"/>
-      <c r="D20" s="177">
+      <c r="D20" s="176">
         <v>5</v>
       </c>
-      <c r="E20" s="178" t="s">
+      <c r="E20" s="177" t="s">
         <v>27</v>
       </c>
-      <c r="F20" s="156" t="s">
+      <c r="F20" s="155" t="s">
         <v>76</v>
       </c>
       <c r="G20" s="46">
@@ -2730,13 +2783,13 @@
     <row r="23" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C23" s="43"/>
       <c r="D23" s="44"/>
-      <c r="E23" s="168" t="s">
+      <c r="E23" s="167" t="s">
         <v>63</v>
       </c>
-      <c r="F23" s="157"/>
+      <c r="F23" s="156"/>
       <c r="G23" s="46"/>
-      <c r="H23" s="158"/>
-      <c r="I23" s="159"/>
+      <c r="H23" s="157"/>
+      <c r="I23" s="158"/>
       <c r="J23" s="47"/>
       <c r="K23" s="48"/>
       <c r="L23" s="49"/>
@@ -2748,25 +2801,25 @@
       </c>
       <c r="C24" s="43"/>
       <c r="D24" s="44"/>
-      <c r="E24" s="205" t="s">
-        <v>116</v>
-      </c>
-      <c r="F24" s="197" t="s">
+      <c r="E24" s="168" t="s">
+        <v>114</v>
+      </c>
+      <c r="F24" s="155" t="s">
         <v>76</v>
       </c>
-      <c r="G24" s="198">
+      <c r="G24" s="46">
         <v>0.5</v>
       </c>
-      <c r="H24" s="199">
+      <c r="H24" s="157">
         <v>42782</v>
       </c>
-      <c r="I24" s="200">
+      <c r="I24" s="158">
         <v>42784</v>
       </c>
-      <c r="J24" s="201"/>
-      <c r="K24" s="202"/>
-      <c r="L24" s="203"/>
-      <c r="M24" s="204"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="48"/>
+      <c r="L24" s="49"/>
+      <c r="M24" s="50"/>
     </row>
     <row r="25" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
@@ -2774,39 +2827,39 @@
       </c>
       <c r="C25" s="43"/>
       <c r="D25" s="44"/>
-      <c r="E25" s="169" t="s">
+      <c r="E25" s="168" t="s">
         <v>54</v>
       </c>
-      <c r="F25" s="156"/>
+      <c r="F25" s="155"/>
       <c r="G25" s="115"/>
-      <c r="H25" s="158"/>
-      <c r="I25" s="159"/>
+      <c r="H25" s="157"/>
+      <c r="I25" s="158"/>
       <c r="J25" s="47"/>
       <c r="K25" s="48"/>
       <c r="L25" s="49"/>
       <c r="M25" s="50"/>
     </row>
-    <row r="26" spans="1:14" s="160" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" s="159" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="43"/>
       <c r="D26" s="44"/>
-      <c r="E26" s="169" t="s">
+      <c r="E26" s="168" t="s">
         <v>77</v>
       </c>
-      <c r="F26" s="156" t="s">
+      <c r="F26" s="155" t="s">
         <v>76</v>
       </c>
       <c r="G26" s="115">
         <v>2</v>
       </c>
-      <c r="H26" s="158">
-        <v>42782</v>
-      </c>
-      <c r="I26" s="159">
-        <v>42784</v>
+      <c r="H26" s="53">
+        <v>42786</v>
+      </c>
+      <c r="I26" s="54">
+        <v>42790</v>
       </c>
       <c r="J26" s="47"/>
       <c r="K26" s="48"/>
@@ -2819,17 +2872,21 @@
       </c>
       <c r="C27" s="43"/>
       <c r="D27" s="44"/>
-      <c r="E27" s="169" t="s">
+      <c r="E27" s="199" t="s">
         <v>55</v>
       </c>
-      <c r="F27" s="156"/>
-      <c r="G27" s="115"/>
-      <c r="H27" s="158"/>
-      <c r="I27" s="159"/>
-      <c r="J27" s="47"/>
-      <c r="K27" s="48"/>
-      <c r="L27" s="49"/>
-      <c r="M27" s="56"/>
+      <c r="F27" s="192" t="s">
+        <v>76</v>
+      </c>
+      <c r="G27" s="201"/>
+      <c r="H27" s="194"/>
+      <c r="I27" s="195"/>
+      <c r="J27" s="196"/>
+      <c r="K27" s="197"/>
+      <c r="L27" s="198"/>
+      <c r="M27" s="204" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="28" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
@@ -2837,20 +2894,20 @@
       </c>
       <c r="C28" s="43"/>
       <c r="D28" s="44"/>
-      <c r="E28" s="169" t="s">
+      <c r="E28" s="168" t="s">
         <v>79</v>
       </c>
-      <c r="F28" s="156" t="s">
+      <c r="F28" s="155" t="s">
         <v>76</v>
       </c>
       <c r="G28" s="115">
         <v>2</v>
       </c>
-      <c r="H28" s="158">
-        <v>42782</v>
-      </c>
-      <c r="I28" s="159">
-        <v>42784</v>
+      <c r="H28" s="53">
+        <v>42786</v>
+      </c>
+      <c r="I28" s="54">
+        <v>42790</v>
       </c>
       <c r="J28" s="47"/>
       <c r="K28" s="48"/>
@@ -2860,7 +2917,7 @@
     <row r="29" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C29" s="43"/>
       <c r="D29" s="44"/>
-      <c r="E29" s="168" t="s">
+      <c r="E29" s="167" t="s">
         <v>64</v>
       </c>
       <c r="F29" s="52"/>
@@ -2873,22 +2930,23 @@
       <c r="M29" s="56"/>
     </row>
     <row r="30" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="C30" s="43"/>
       <c r="D30" s="44"/>
-      <c r="E30" s="169" t="s">
-        <v>56</v>
-      </c>
-      <c r="F30" s="52"/>
+      <c r="E30" s="199" t="s">
+        <v>126</v>
+      </c>
+      <c r="F30" s="192" t="s">
+        <v>76</v>
+      </c>
       <c r="G30" s="46"/>
       <c r="H30" s="53"/>
       <c r="I30" s="54"/>
       <c r="J30" s="47"/>
       <c r="K30" s="48"/>
       <c r="L30" s="49"/>
-      <c r="M30" s="56"/>
+      <c r="M30" s="204" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="31" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
@@ -2896,720 +2954,704 @@
       </c>
       <c r="C31" s="43"/>
       <c r="D31" s="44"/>
-      <c r="E31" s="169" t="s">
-        <v>93</v>
-      </c>
-      <c r="F31" s="156" t="s">
-        <v>76</v>
-      </c>
-      <c r="G31" s="46">
-        <v>4</v>
-      </c>
-      <c r="H31" s="158">
-        <v>42782</v>
-      </c>
-      <c r="I31" s="159">
-        <v>42784</v>
-      </c>
+      <c r="E31" s="168" t="s">
+        <v>56</v>
+      </c>
+      <c r="F31" s="52"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="53"/>
+      <c r="I31" s="54"/>
       <c r="J31" s="47"/>
       <c r="K31" s="48"/>
       <c r="L31" s="49"/>
       <c r="M31" s="56"/>
-      <c r="N31" s="160"/>
     </row>
     <row r="32" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="C32" s="43"/>
       <c r="D32" s="44"/>
-      <c r="E32" s="170" t="s">
-        <v>68</v>
-      </c>
-      <c r="F32" s="157"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="158"/>
-      <c r="I32" s="159"/>
+      <c r="E32" s="199" t="s">
+        <v>93</v>
+      </c>
+      <c r="F32" s="192" t="s">
+        <v>76</v>
+      </c>
+      <c r="G32" s="193">
+        <v>4</v>
+      </c>
+      <c r="H32" s="202"/>
+      <c r="I32" s="203"/>
       <c r="J32" s="47"/>
       <c r="K32" s="48"/>
       <c r="L32" s="49"/>
       <c r="M32" s="56"/>
-    </row>
-    <row r="33" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="N32" s="159"/>
+    </row>
+    <row r="33" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C33" s="43"/>
       <c r="D33" s="44"/>
-      <c r="E33" s="171" t="s">
-        <v>57</v>
-      </c>
-      <c r="F33" s="156"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="158"/>
-      <c r="I33" s="159"/>
+      <c r="E33" s="173" t="s">
+        <v>65</v>
+      </c>
+      <c r="F33" s="192"/>
+      <c r="G33" s="193"/>
+      <c r="H33" s="202"/>
+      <c r="I33" s="203"/>
       <c r="J33" s="47"/>
       <c r="K33" s="48"/>
       <c r="L33" s="49"/>
       <c r="M33" s="56"/>
-    </row>
-    <row r="34" spans="1:13" s="160" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B34" s="2"/>
+      <c r="N33" s="159"/>
+    </row>
+    <row r="34" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C34" s="43"/>
       <c r="D34" s="44"/>
-      <c r="E34" s="171" t="s">
-        <v>80</v>
-      </c>
-      <c r="F34" s="156" t="s">
+      <c r="E34" s="208" t="s">
+        <v>101</v>
+      </c>
+      <c r="F34" s="192" t="s">
         <v>76</v>
       </c>
-      <c r="G34" s="115">
-        <v>2</v>
-      </c>
-      <c r="H34" s="53">
-        <v>42786</v>
-      </c>
-      <c r="I34" s="54">
-        <v>42790</v>
-      </c>
+      <c r="G34" s="193"/>
+      <c r="H34" s="202"/>
+      <c r="I34" s="203"/>
       <c r="J34" s="47"/>
       <c r="K34" s="48"/>
       <c r="L34" s="49"/>
-      <c r="M34" s="56"/>
-    </row>
-    <row r="35" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="M34" s="204" t="s">
+        <v>139</v>
+      </c>
+      <c r="N34" s="159"/>
+    </row>
+    <row r="35" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C35" s="43"/>
       <c r="D35" s="44"/>
-      <c r="E35" s="171" t="s">
-        <v>58</v>
+      <c r="E35" s="169" t="s">
+        <v>68</v>
       </c>
       <c r="F35" s="156"/>
       <c r="G35" s="46"/>
-      <c r="H35" s="158"/>
-      <c r="I35" s="159"/>
+      <c r="H35" s="157"/>
+      <c r="I35" s="158"/>
       <c r="J35" s="47"/>
       <c r="K35" s="48"/>
       <c r="L35" s="49"/>
       <c r="M35" s="56"/>
     </row>
-    <row r="36" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="C36" s="43"/>
       <c r="D36" s="44"/>
-      <c r="E36" s="171" t="s">
-        <v>81</v>
-      </c>
-      <c r="F36" s="156" t="s">
-        <v>76</v>
-      </c>
-      <c r="G36" s="115">
-        <v>2</v>
-      </c>
-      <c r="H36" s="53">
-        <v>42786</v>
-      </c>
-      <c r="I36" s="54">
-        <v>42790</v>
-      </c>
+      <c r="E36" s="170" t="s">
+        <v>57</v>
+      </c>
+      <c r="F36" s="155"/>
+      <c r="G36" s="46"/>
+      <c r="H36" s="157"/>
+      <c r="I36" s="158"/>
       <c r="J36" s="47"/>
       <c r="K36" s="48"/>
       <c r="L36" s="49"/>
       <c r="M36" s="56"/>
     </row>
-    <row r="37" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" s="159" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37" s="2"/>
       <c r="C37" s="43"/>
       <c r="D37" s="44"/>
       <c r="E37" s="170" t="s">
-        <v>66</v>
-      </c>
-      <c r="F37" s="157"/>
-      <c r="G37" s="46"/>
-      <c r="H37" s="158"/>
-      <c r="I37" s="159"/>
+        <v>80</v>
+      </c>
+      <c r="F37" s="155" t="s">
+        <v>76</v>
+      </c>
+      <c r="G37" s="115">
+        <v>2</v>
+      </c>
+      <c r="H37" s="53">
+        <v>42786</v>
+      </c>
+      <c r="I37" s="54">
+        <v>42790</v>
+      </c>
       <c r="J37" s="47"/>
       <c r="K37" s="48"/>
       <c r="L37" s="49"/>
       <c r="M37" s="56"/>
     </row>
-    <row r="38" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C38" s="43"/>
       <c r="D38" s="44"/>
-      <c r="E38" s="216" t="s">
-        <v>121</v>
-      </c>
-      <c r="F38" s="220"/>
-      <c r="G38" s="207"/>
-      <c r="H38" s="208"/>
-      <c r="I38" s="209"/>
-      <c r="J38" s="210"/>
-      <c r="K38" s="202"/>
-      <c r="L38" s="203"/>
+      <c r="E38" s="170" t="s">
+        <v>58</v>
+      </c>
+      <c r="F38" s="155"/>
+      <c r="G38" s="46"/>
+      <c r="H38" s="157"/>
+      <c r="I38" s="158"/>
+      <c r="J38" s="47"/>
+      <c r="K38" s="48"/>
+      <c r="L38" s="49"/>
       <c r="M38" s="56"/>
     </row>
-    <row r="39" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="C39" s="43"/>
       <c r="D39" s="44"/>
-      <c r="E39" s="216" t="s">
-        <v>119</v>
-      </c>
-      <c r="F39" s="220" t="s">
+      <c r="E39" s="170" t="s">
+        <v>81</v>
+      </c>
+      <c r="F39" s="155" t="s">
         <v>76</v>
       </c>
-      <c r="G39" s="207">
+      <c r="G39" s="115">
         <v>2</v>
       </c>
-      <c r="H39" s="208">
-        <v>42782</v>
-      </c>
-      <c r="I39" s="209">
-        <v>42784</v>
-      </c>
-      <c r="J39" s="210"/>
-      <c r="K39" s="202"/>
-      <c r="L39" s="203"/>
-      <c r="M39" s="212" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="H39" s="53">
+        <v>42786</v>
+      </c>
+      <c r="I39" s="54">
+        <v>42790</v>
+      </c>
+      <c r="J39" s="47"/>
+      <c r="K39" s="48"/>
+      <c r="L39" s="49"/>
+      <c r="M39" s="56"/>
+    </row>
+    <row r="40" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C40" s="43"/>
       <c r="D40" s="44"/>
-      <c r="E40" s="171" t="s">
-        <v>59</v>
-      </c>
-      <c r="F40" s="156"/>
-      <c r="G40" s="46"/>
-      <c r="H40" s="158"/>
-      <c r="I40" s="159"/>
+      <c r="E40" s="213" t="s">
+        <v>127</v>
+      </c>
+      <c r="F40" s="192" t="s">
+        <v>76</v>
+      </c>
+      <c r="G40" s="115"/>
+      <c r="H40" s="53"/>
+      <c r="I40" s="54"/>
       <c r="J40" s="47"/>
       <c r="K40" s="48"/>
       <c r="L40" s="49"/>
-      <c r="M40" s="56"/>
-    </row>
-    <row r="41" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>78</v>
-      </c>
+      <c r="M40" s="204" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C41" s="43"/>
       <c r="D41" s="44"/>
-      <c r="E41" s="171" t="s">
-        <v>82</v>
-      </c>
-      <c r="F41" s="156" t="s">
-        <v>76</v>
-      </c>
-      <c r="G41" s="115">
-        <v>2</v>
-      </c>
-      <c r="H41" s="53">
-        <v>42786</v>
-      </c>
-      <c r="I41" s="54">
-        <v>42790</v>
-      </c>
+      <c r="E41" s="169" t="s">
+        <v>66</v>
+      </c>
+      <c r="F41" s="156"/>
+      <c r="G41" s="46"/>
+      <c r="H41" s="157"/>
+      <c r="I41" s="158"/>
       <c r="J41" s="47"/>
       <c r="K41" s="48"/>
       <c r="L41" s="49"/>
       <c r="M41" s="56"/>
     </row>
-    <row r="42" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C42" s="43"/>
       <c r="D42" s="44"/>
-      <c r="E42" s="171" t="s">
-        <v>60</v>
-      </c>
-      <c r="F42" s="156"/>
-      <c r="G42" s="46"/>
-      <c r="H42" s="158"/>
-      <c r="I42" s="159"/>
-      <c r="J42" s="47"/>
+      <c r="E42" s="172" t="s">
+        <v>119</v>
+      </c>
+      <c r="F42" s="57"/>
+      <c r="G42" s="115"/>
+      <c r="H42" s="53"/>
+      <c r="I42" s="54"/>
+      <c r="J42" s="160"/>
       <c r="K42" s="48"/>
       <c r="L42" s="49"/>
       <c r="M42" s="56"/>
     </row>
-    <row r="43" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="C43" s="43"/>
       <c r="D43" s="44"/>
-      <c r="E43" s="171" t="s">
-        <v>83</v>
-      </c>
-      <c r="F43" s="156" t="s">
+      <c r="E43" s="172" t="s">
+        <v>117</v>
+      </c>
+      <c r="F43" s="57" t="s">
         <v>76</v>
       </c>
       <c r="G43" s="115">
         <v>2</v>
       </c>
       <c r="H43" s="53">
-        <v>42786</v>
+        <v>42782</v>
       </c>
       <c r="I43" s="54">
-        <v>42790</v>
-      </c>
-      <c r="J43" s="47"/>
+        <v>42784</v>
+      </c>
+      <c r="J43" s="160"/>
       <c r="K43" s="48"/>
       <c r="L43" s="49"/>
       <c r="M43" s="56" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="C44" s="43"/>
       <c r="D44" s="44"/>
-      <c r="E44" s="172" t="s">
-        <v>67</v>
-      </c>
-      <c r="F44" s="52"/>
+      <c r="E44" s="213" t="s">
+        <v>59</v>
+      </c>
+      <c r="F44" s="192" t="s">
+        <v>76</v>
+      </c>
       <c r="G44" s="46"/>
-      <c r="H44" s="53"/>
-      <c r="I44" s="54"/>
+      <c r="H44" s="157"/>
+      <c r="I44" s="158"/>
       <c r="J44" s="47"/>
       <c r="K44" s="48"/>
       <c r="L44" s="49"/>
-      <c r="M44" s="56"/>
-    </row>
-    <row r="45" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="M44" s="204" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="C45" s="43"/>
       <c r="D45" s="44"/>
-      <c r="E45" s="169" t="s">
-        <v>61</v>
-      </c>
-      <c r="F45" s="19"/>
-      <c r="G45" s="46"/>
-      <c r="H45" s="53"/>
-      <c r="I45" s="54"/>
+      <c r="E45" s="170" t="s">
+        <v>82</v>
+      </c>
+      <c r="F45" s="155" t="s">
+        <v>76</v>
+      </c>
+      <c r="G45" s="115">
+        <v>2</v>
+      </c>
+      <c r="H45" s="53">
+        <v>42795</v>
+      </c>
+      <c r="I45" s="54">
+        <v>42797</v>
+      </c>
       <c r="J45" s="47"/>
       <c r="K45" s="48"/>
       <c r="L45" s="49"/>
       <c r="M45" s="56"/>
     </row>
-    <row r="46" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="C46" s="43"/>
       <c r="D46" s="44"/>
-      <c r="E46" s="171" t="s">
-        <v>84</v>
-      </c>
-      <c r="F46" s="156" t="s">
+      <c r="E46" s="213" t="s">
+        <v>60</v>
+      </c>
+      <c r="F46" s="192" t="s">
         <v>76</v>
       </c>
-      <c r="G46" s="115">
-        <v>2</v>
-      </c>
-      <c r="H46" s="53">
-        <v>42786</v>
-      </c>
-      <c r="I46" s="54">
-        <v>42790</v>
-      </c>
+      <c r="G46" s="46"/>
+      <c r="H46" s="157"/>
+      <c r="I46" s="158"/>
       <c r="J46" s="47"/>
       <c r="K46" s="48"/>
       <c r="L46" s="49"/>
-      <c r="M46" s="56"/>
-    </row>
-    <row r="47" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="M46" s="204" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="C47" s="43"/>
       <c r="D47" s="44"/>
-      <c r="E47" s="205" t="s">
-        <v>62</v>
-      </c>
-      <c r="F47" s="197" t="s">
+      <c r="E47" s="170" t="s">
+        <v>83</v>
+      </c>
+      <c r="F47" s="155" t="s">
         <v>76</v>
       </c>
-      <c r="G47" s="198">
+      <c r="G47" s="115">
         <v>2</v>
       </c>
-      <c r="H47" s="208">
+      <c r="H47" s="53">
         <v>42782</v>
       </c>
-      <c r="I47" s="209">
+      <c r="I47" s="54">
         <v>42784</v>
       </c>
-      <c r="J47" s="201"/>
-      <c r="K47" s="202"/>
-      <c r="L47" s="203"/>
-      <c r="M47" s="212" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>78</v>
-      </c>
+      <c r="J47" s="47"/>
+      <c r="K47" s="48"/>
+      <c r="L47" s="49"/>
+      <c r="M47" s="56" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C48" s="43"/>
       <c r="D48" s="44"/>
-      <c r="E48" s="171" t="s">
-        <v>85</v>
-      </c>
-      <c r="F48" s="156" t="s">
+      <c r="E48" s="213" t="s">
+        <v>142</v>
+      </c>
+      <c r="F48" s="192" t="s">
         <v>76</v>
       </c>
-      <c r="G48" s="115">
-        <v>2</v>
-      </c>
-      <c r="H48" s="208">
-        <v>42782</v>
-      </c>
-      <c r="I48" s="209">
-        <v>42784</v>
-      </c>
+      <c r="G48" s="115"/>
+      <c r="H48" s="53"/>
+      <c r="I48" s="54"/>
       <c r="J48" s="47"/>
       <c r="K48" s="48"/>
       <c r="L48" s="49"/>
-      <c r="M48" s="56"/>
-    </row>
-    <row r="49" spans="1:13" ht="17.25" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C49" s="182"/>
-      <c r="D49" s="190"/>
-      <c r="E49" s="189" t="s">
-        <v>95</v>
-      </c>
-      <c r="F49" s="156" t="s">
+      <c r="M48" s="204" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C49" s="43"/>
+      <c r="D49" s="44"/>
+      <c r="E49" s="213" t="s">
+        <v>144</v>
+      </c>
+      <c r="F49" s="192" t="s">
         <v>76</v>
       </c>
-      <c r="G49" s="184">
-        <v>5</v>
-      </c>
-      <c r="H49" s="158">
-        <v>42782</v>
-      </c>
-      <c r="I49" s="159">
-        <v>42784</v>
-      </c>
-      <c r="J49" s="191"/>
-      <c r="K49" s="186"/>
-      <c r="L49" s="187"/>
-      <c r="M49" s="188"/>
-    </row>
-    <row r="50" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C50" s="5">
-        <v>3</v>
-      </c>
-      <c r="D50" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="E50" s="35"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="9">
-        <f>SUM(G51:G81)</f>
-        <v>59.5</v>
-      </c>
-      <c r="H50" s="10"/>
-      <c r="I50" s="11"/>
-      <c r="J50" s="12"/>
-      <c r="K50" s="13"/>
-      <c r="L50" s="14"/>
-      <c r="M50" s="15"/>
+      <c r="G49" s="115"/>
+      <c r="H49" s="53"/>
+      <c r="I49" s="54"/>
+      <c r="J49" s="47"/>
+      <c r="K49" s="48"/>
+      <c r="L49" s="49"/>
+      <c r="M49" s="204" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C50" s="43"/>
+      <c r="D50" s="44"/>
+      <c r="E50" s="171" t="s">
+        <v>67</v>
+      </c>
+      <c r="F50" s="52"/>
+      <c r="G50" s="46"/>
+      <c r="H50" s="53"/>
+      <c r="I50" s="54"/>
+      <c r="J50" s="47"/>
+      <c r="K50" s="48"/>
+      <c r="L50" s="49"/>
+      <c r="M50" s="56"/>
     </row>
     <row r="51" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C51" s="43"/>
-      <c r="D51" s="44">
-        <v>9</v>
-      </c>
-      <c r="E51" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="F51" s="156"/>
-      <c r="G51" s="20"/>
+      <c r="D51" s="44"/>
+      <c r="E51" s="168" t="s">
+        <v>61</v>
+      </c>
+      <c r="F51" s="19"/>
+      <c r="G51" s="46"/>
       <c r="H51" s="53"/>
       <c r="I51" s="54"/>
-      <c r="J51" s="62"/>
-      <c r="K51" s="63"/>
-      <c r="L51" s="64"/>
-      <c r="M51" s="25"/>
+      <c r="J51" s="47"/>
+      <c r="K51" s="48"/>
+      <c r="L51" s="49"/>
+      <c r="M51" s="56"/>
     </row>
     <row r="52" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="C52" s="43"/>
-      <c r="D52" s="44">
-        <v>10</v>
-      </c>
-      <c r="E52" s="65" t="s">
-        <v>32</v>
-      </c>
-      <c r="F52" s="19"/>
-      <c r="G52" s="20"/>
-      <c r="H52" s="53"/>
-      <c r="I52" s="54"/>
-      <c r="J52" s="55"/>
-      <c r="K52" s="39"/>
-      <c r="L52" s="40"/>
-      <c r="M52" s="25"/>
+      <c r="D52" s="44"/>
+      <c r="E52" s="170" t="s">
+        <v>84</v>
+      </c>
+      <c r="F52" s="155" t="s">
+        <v>76</v>
+      </c>
+      <c r="G52" s="115">
+        <v>2</v>
+      </c>
+      <c r="H52" s="53">
+        <v>42795</v>
+      </c>
+      <c r="I52" s="54">
+        <v>42797</v>
+      </c>
+      <c r="J52" s="47"/>
+      <c r="K52" s="48"/>
+      <c r="L52" s="49"/>
+      <c r="M52" s="56"/>
     </row>
     <row r="53" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C53" s="43"/>
-      <c r="D53" s="44">
-        <v>11</v>
-      </c>
-      <c r="E53" s="65" t="s">
-        <v>72</v>
-      </c>
-      <c r="F53" s="19"/>
-      <c r="G53" s="20"/>
-      <c r="H53" s="21"/>
-      <c r="I53" s="22"/>
-      <c r="J53" s="55"/>
-      <c r="K53" s="39"/>
-      <c r="L53" s="40"/>
-      <c r="M53" s="25"/>
+      <c r="D53" s="44"/>
+      <c r="E53" s="168" t="s">
+        <v>62</v>
+      </c>
+      <c r="F53" s="155" t="s">
+        <v>76</v>
+      </c>
+      <c r="G53" s="46">
+        <v>2</v>
+      </c>
+      <c r="H53" s="53">
+        <v>42782</v>
+      </c>
+      <c r="I53" s="54">
+        <v>42784</v>
+      </c>
+      <c r="J53" s="47"/>
+      <c r="K53" s="48"/>
+      <c r="L53" s="49"/>
+      <c r="M53" s="56" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="54" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="C54" s="43"/>
-      <c r="D54" s="44">
-        <v>12</v>
-      </c>
-      <c r="E54" s="65" t="s">
-        <v>73</v>
-      </c>
-      <c r="F54" s="19"/>
-      <c r="G54" s="115"/>
-      <c r="H54" s="66"/>
-      <c r="I54" s="107"/>
-      <c r="J54" s="55"/>
-      <c r="K54" s="153"/>
-      <c r="L54" s="40"/>
-      <c r="M54" s="25"/>
+      <c r="D54" s="44"/>
+      <c r="E54" s="170" t="s">
+        <v>85</v>
+      </c>
+      <c r="F54" s="155" t="s">
+        <v>76</v>
+      </c>
+      <c r="G54" s="115">
+        <v>2</v>
+      </c>
+      <c r="H54" s="53">
+        <v>42782</v>
+      </c>
+      <c r="I54" s="54">
+        <v>42784</v>
+      </c>
+      <c r="J54" s="47"/>
+      <c r="K54" s="48"/>
+      <c r="L54" s="49"/>
+      <c r="M54" s="56"/>
     </row>
     <row r="55" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C55" s="43"/>
-      <c r="D55" s="44"/>
-      <c r="E55" s="168" t="s">
-        <v>63</v>
-      </c>
-      <c r="F55" s="157"/>
-      <c r="G55" s="46"/>
-      <c r="H55" s="158"/>
-      <c r="I55" s="159"/>
-      <c r="J55" s="47"/>
-      <c r="K55" s="48"/>
-      <c r="L55" s="49"/>
-      <c r="M55" s="50"/>
+      <c r="C55" s="181"/>
+      <c r="D55" s="189"/>
+      <c r="E55" s="213" t="s">
+        <v>128</v>
+      </c>
+      <c r="F55" s="192" t="s">
+        <v>76</v>
+      </c>
+      <c r="G55" s="183"/>
+      <c r="H55" s="53"/>
+      <c r="I55" s="54"/>
+      <c r="J55" s="190"/>
+      <c r="K55" s="185"/>
+      <c r="L55" s="186"/>
+      <c r="M55" s="209" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="56" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C56" s="43"/>
-      <c r="D56" s="44"/>
-      <c r="E56" s="205" t="s">
-        <v>116</v>
-      </c>
-      <c r="F56" s="197" t="s">
+      <c r="C56" s="181"/>
+      <c r="D56" s="189"/>
+      <c r="E56" s="170" t="s">
+        <v>94</v>
+      </c>
+      <c r="F56" s="155" t="s">
         <v>76</v>
       </c>
-      <c r="G56" s="198">
-        <v>0.5</v>
-      </c>
-      <c r="H56" s="199">
+      <c r="G56" s="183">
+        <v>5</v>
+      </c>
+      <c r="H56" s="157">
         <v>42782</v>
       </c>
-      <c r="I56" s="200">
+      <c r="I56" s="158">
         <v>42784</v>
       </c>
-      <c r="J56" s="47"/>
-      <c r="K56" s="48"/>
-      <c r="L56" s="49"/>
-      <c r="M56" s="50"/>
-    </row>
-    <row r="57" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C57" s="43"/>
-      <c r="D57" s="44"/>
-      <c r="E57" s="169" t="s">
-        <v>54</v>
-      </c>
-      <c r="F57" s="156"/>
-      <c r="G57" s="115"/>
-      <c r="H57" s="158"/>
-      <c r="I57" s="159"/>
-      <c r="J57" s="47"/>
-      <c r="K57" s="48"/>
-      <c r="L57" s="49"/>
-      <c r="M57" s="50"/>
-    </row>
-    <row r="58" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C58" s="43"/>
-      <c r="D58" s="44"/>
-      <c r="E58" s="173" t="s">
-        <v>77</v>
-      </c>
-      <c r="F58" s="57" t="s">
+      <c r="J56" s="190"/>
+      <c r="K56" s="185"/>
+      <c r="L56" s="186"/>
+      <c r="M56" s="187"/>
+    </row>
+    <row r="57" spans="1:13" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C57" s="181"/>
+      <c r="D57" s="189"/>
+      <c r="E57" s="213" t="s">
+        <v>137</v>
+      </c>
+      <c r="F57" s="192" t="s">
         <v>76</v>
       </c>
-      <c r="G58" s="115">
+      <c r="G57" s="183"/>
+      <c r="H57" s="157"/>
+      <c r="I57" s="158"/>
+      <c r="J57" s="190"/>
+      <c r="K57" s="185"/>
+      <c r="L57" s="186"/>
+      <c r="M57" s="209" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="17.25" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C58" s="181"/>
+      <c r="D58" s="189"/>
+      <c r="E58" s="214" t="s">
+        <v>130</v>
+      </c>
+      <c r="F58" s="192" t="s">
+        <v>76</v>
+      </c>
+      <c r="G58" s="183"/>
+      <c r="H58" s="157"/>
+      <c r="I58" s="158"/>
+      <c r="J58" s="190"/>
+      <c r="K58" s="185"/>
+      <c r="L58" s="186"/>
+      <c r="M58" s="209" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C59" s="5">
         <v>3</v>
       </c>
-      <c r="H58" s="158">
-        <v>42782</v>
-      </c>
-      <c r="I58" s="159">
-        <v>42784</v>
-      </c>
-      <c r="J58" s="161"/>
-      <c r="K58" s="48"/>
-      <c r="L58" s="49"/>
-      <c r="M58" s="56"/>
-    </row>
-    <row r="59" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C59" s="43"/>
-      <c r="D59" s="44"/>
-      <c r="E59" s="173" t="s">
-        <v>55</v>
-      </c>
-      <c r="F59" s="57"/>
-      <c r="G59" s="115"/>
-      <c r="H59" s="53"/>
-      <c r="I59" s="54"/>
-      <c r="J59" s="161"/>
-      <c r="K59" s="48"/>
-      <c r="L59" s="49"/>
-      <c r="M59" s="56"/>
+      <c r="D59" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="E59" s="35"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="9">
+        <f>SUM(G60:G88)</f>
+        <v>56.5</v>
+      </c>
+      <c r="H59" s="10"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="12"/>
+      <c r="K59" s="13"/>
+      <c r="L59" s="14"/>
+      <c r="M59" s="15"/>
     </row>
     <row r="60" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="C60" s="43"/>
-      <c r="D60" s="44"/>
-      <c r="E60" s="173" t="s">
-        <v>79</v>
-      </c>
-      <c r="F60" s="57" t="s">
-        <v>76</v>
-      </c>
-      <c r="G60" s="115">
-        <v>3</v>
-      </c>
-      <c r="H60" s="158">
-        <v>42782</v>
-      </c>
-      <c r="I60" s="159">
-        <v>42784</v>
-      </c>
-      <c r="J60" s="161"/>
-      <c r="K60" s="48"/>
-      <c r="L60" s="49"/>
-      <c r="M60" s="56"/>
+      <c r="D60" s="44">
+        <v>9</v>
+      </c>
+      <c r="E60" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="F60" s="155"/>
+      <c r="G60" s="20"/>
+      <c r="H60" s="53"/>
+      <c r="I60" s="54"/>
+      <c r="J60" s="62"/>
+      <c r="K60" s="63"/>
+      <c r="L60" s="64"/>
+      <c r="M60" s="25"/>
     </row>
     <row r="61" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="C61" s="43"/>
-      <c r="D61" s="44"/>
-      <c r="E61" s="174" t="s">
-        <v>64</v>
-      </c>
-      <c r="F61" s="155"/>
-      <c r="G61" s="115"/>
+      <c r="D61" s="44">
+        <v>10</v>
+      </c>
+      <c r="E61" s="65" t="s">
+        <v>32</v>
+      </c>
+      <c r="F61" s="19"/>
+      <c r="G61" s="20"/>
       <c r="H61" s="53"/>
       <c r="I61" s="54"/>
-      <c r="J61" s="161"/>
-      <c r="K61" s="48"/>
-      <c r="L61" s="49"/>
-      <c r="M61" s="56"/>
+      <c r="J61" s="55"/>
+      <c r="K61" s="39"/>
+      <c r="L61" s="40"/>
+      <c r="M61" s="25"/>
     </row>
     <row r="62" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C62" s="43"/>
-      <c r="D62" s="44"/>
-      <c r="E62" s="173" t="s">
-        <v>56</v>
-      </c>
-      <c r="F62" s="155"/>
-      <c r="G62" s="115"/>
-      <c r="H62" s="53"/>
-      <c r="I62" s="54"/>
-      <c r="J62" s="161"/>
-      <c r="K62" s="48"/>
-      <c r="L62" s="49"/>
-      <c r="M62" s="56"/>
+      <c r="D62" s="44">
+        <v>11</v>
+      </c>
+      <c r="E62" s="65" t="s">
+        <v>72</v>
+      </c>
+      <c r="F62" s="19"/>
+      <c r="G62" s="20"/>
+      <c r="H62" s="21"/>
+      <c r="I62" s="22"/>
+      <c r="J62" s="55"/>
+      <c r="K62" s="39"/>
+      <c r="L62" s="40"/>
+      <c r="M62" s="25"/>
     </row>
     <row r="63" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="C63" s="43"/>
-      <c r="D63" s="44"/>
-      <c r="E63" s="173" t="s">
-        <v>93</v>
-      </c>
-      <c r="F63" s="155" t="s">
-        <v>92</v>
-      </c>
-      <c r="G63" s="115">
-        <v>4</v>
-      </c>
-      <c r="H63" s="158">
-        <v>42782</v>
-      </c>
-      <c r="I63" s="159">
-        <v>42784</v>
-      </c>
-      <c r="J63" s="161"/>
-      <c r="K63" s="48"/>
-      <c r="L63" s="49"/>
-      <c r="M63" s="56"/>
+      <c r="D63" s="44">
+        <v>12</v>
+      </c>
+      <c r="E63" s="65" t="s">
+        <v>73</v>
+      </c>
+      <c r="F63" s="19"/>
+      <c r="G63" s="115"/>
+      <c r="H63" s="66"/>
+      <c r="I63" s="107"/>
+      <c r="J63" s="55"/>
+      <c r="K63" s="152"/>
+      <c r="L63" s="40"/>
+      <c r="M63" s="25"/>
     </row>
     <row r="64" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C64" s="43"/>
       <c r="D64" s="44"/>
-      <c r="E64" s="175" t="s">
-        <v>68</v>
-      </c>
-      <c r="F64" s="155"/>
-      <c r="G64" s="115"/>
-      <c r="H64" s="53"/>
-      <c r="I64" s="54"/>
-      <c r="J64" s="161"/>
+      <c r="E64" s="167" t="s">
+        <v>63</v>
+      </c>
+      <c r="F64" s="156"/>
+      <c r="G64" s="46"/>
+      <c r="H64" s="157"/>
+      <c r="I64" s="158"/>
+      <c r="J64" s="47"/>
       <c r="K64" s="48"/>
       <c r="L64" s="49"/>
-      <c r="M64" s="56"/>
+      <c r="M64" s="50"/>
     </row>
     <row r="65" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
@@ -3617,17 +3659,25 @@
       </c>
       <c r="C65" s="43"/>
       <c r="D65" s="44"/>
-      <c r="E65" s="173" t="s">
-        <v>57</v>
-      </c>
-      <c r="F65" s="57"/>
-      <c r="G65" s="115"/>
-      <c r="H65" s="53"/>
-      <c r="I65" s="54"/>
-      <c r="J65" s="161"/>
+      <c r="E65" s="168" t="s">
+        <v>114</v>
+      </c>
+      <c r="F65" s="155" t="s">
+        <v>76</v>
+      </c>
+      <c r="G65" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="H65" s="157">
+        <v>42782</v>
+      </c>
+      <c r="I65" s="158">
+        <v>42784</v>
+      </c>
+      <c r="J65" s="47"/>
       <c r="K65" s="48"/>
       <c r="L65" s="49"/>
-      <c r="M65" s="56"/>
+      <c r="M65" s="50"/>
     </row>
     <row r="66" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
@@ -3635,40 +3685,40 @@
       </c>
       <c r="C66" s="43"/>
       <c r="D66" s="44"/>
-      <c r="E66" s="173" t="s">
-        <v>86</v>
-      </c>
-      <c r="F66" s="57" t="s">
-        <v>76</v>
-      </c>
-      <c r="G66" s="115">
-        <v>3</v>
-      </c>
-      <c r="H66" s="53">
-        <v>42786</v>
-      </c>
-      <c r="I66" s="54">
-        <v>42790</v>
-      </c>
-      <c r="J66" s="161"/>
+      <c r="E66" s="168" t="s">
+        <v>54</v>
+      </c>
+      <c r="F66" s="155"/>
+      <c r="G66" s="115"/>
+      <c r="H66" s="157"/>
+      <c r="I66" s="158"/>
+      <c r="J66" s="47"/>
       <c r="K66" s="48"/>
       <c r="L66" s="49"/>
-      <c r="M66" s="56"/>
+      <c r="M66" s="50"/>
     </row>
     <row r="67" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="C67" s="43"/>
       <c r="D67" s="44"/>
-      <c r="E67" s="173" t="s">
-        <v>58</v>
-      </c>
-      <c r="F67" s="57"/>
-      <c r="G67" s="115"/>
-      <c r="H67" s="53"/>
-      <c r="I67" s="54"/>
-      <c r="J67" s="161"/>
+      <c r="E67" s="172" t="s">
+        <v>77</v>
+      </c>
+      <c r="F67" s="57" t="s">
+        <v>76</v>
+      </c>
+      <c r="G67" s="115">
+        <v>3</v>
+      </c>
+      <c r="H67" s="53">
+        <v>42786</v>
+      </c>
+      <c r="I67" s="54">
+        <v>42790</v>
+      </c>
+      <c r="J67" s="160"/>
       <c r="K67" s="48"/>
       <c r="L67" s="49"/>
       <c r="M67" s="56"/>
@@ -3679,57 +3729,57 @@
       </c>
       <c r="C68" s="43"/>
       <c r="D68" s="44"/>
-      <c r="E68" s="173" t="s">
-        <v>87</v>
-      </c>
-      <c r="F68" s="57" t="s">
-        <v>76</v>
-      </c>
-      <c r="G68" s="115">
-        <v>3</v>
-      </c>
-      <c r="H68" s="53">
-        <v>42786</v>
-      </c>
-      <c r="I68" s="54">
-        <v>42790</v>
-      </c>
-      <c r="J68" s="161"/>
+      <c r="E68" s="172" t="s">
+        <v>55</v>
+      </c>
+      <c r="F68" s="57"/>
+      <c r="G68" s="115"/>
+      <c r="H68" s="53"/>
+      <c r="I68" s="54"/>
+      <c r="J68" s="160"/>
       <c r="K68" s="48"/>
       <c r="L68" s="49"/>
       <c r="M68" s="56"/>
     </row>
     <row r="69" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="C69" s="43"/>
       <c r="D69" s="44"/>
-      <c r="E69" s="175" t="s">
-        <v>66</v>
-      </c>
-      <c r="F69" s="155"/>
-      <c r="G69" s="115"/>
-      <c r="H69" s="53"/>
-      <c r="I69" s="54"/>
-      <c r="J69" s="161"/>
+      <c r="E69" s="172" t="s">
+        <v>79</v>
+      </c>
+      <c r="F69" s="57" t="s">
+        <v>76</v>
+      </c>
+      <c r="G69" s="115">
+        <v>3</v>
+      </c>
+      <c r="H69" s="53">
+        <v>42786</v>
+      </c>
+      <c r="I69" s="54">
+        <v>42790</v>
+      </c>
+      <c r="J69" s="160"/>
       <c r="K69" s="48"/>
       <c r="L69" s="49"/>
       <c r="M69" s="56"/>
     </row>
     <row r="70" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="C70" s="43"/>
       <c r="D70" s="44"/>
-      <c r="E70" s="216" t="s">
-        <v>121</v>
-      </c>
-      <c r="F70" s="220"/>
-      <c r="G70" s="207"/>
-      <c r="H70" s="208"/>
-      <c r="I70" s="209"/>
-      <c r="J70" s="210"/>
-      <c r="K70" s="202"/>
-      <c r="L70" s="203"/>
+      <c r="E70" s="173" t="s">
+        <v>64</v>
+      </c>
+      <c r="F70" s="154"/>
+      <c r="G70" s="115"/>
+      <c r="H70" s="53"/>
+      <c r="I70" s="54"/>
+      <c r="J70" s="160"/>
+      <c r="K70" s="48"/>
+      <c r="L70" s="49"/>
       <c r="M70" s="56"/>
     </row>
     <row r="71" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3738,27 +3788,17 @@
       </c>
       <c r="C71" s="43"/>
       <c r="D71" s="44"/>
-      <c r="E71" s="216" t="s">
-        <v>119</v>
-      </c>
-      <c r="F71" s="220" t="s">
-        <v>76</v>
-      </c>
-      <c r="G71" s="207">
-        <v>3</v>
-      </c>
-      <c r="H71" s="208">
-        <v>42786</v>
-      </c>
-      <c r="I71" s="209">
-        <v>42790</v>
-      </c>
-      <c r="J71" s="210"/>
-      <c r="K71" s="202"/>
-      <c r="L71" s="203"/>
-      <c r="M71" s="212" t="s">
-        <v>122</v>
-      </c>
+      <c r="E71" s="172" t="s">
+        <v>56</v>
+      </c>
+      <c r="F71" s="154"/>
+      <c r="G71" s="115"/>
+      <c r="H71" s="53"/>
+      <c r="I71" s="54"/>
+      <c r="J71" s="160"/>
+      <c r="K71" s="48"/>
+      <c r="L71" s="49"/>
+      <c r="M71" s="56"/>
     </row>
     <row r="72" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
@@ -3766,40 +3806,33 @@
       </c>
       <c r="C72" s="43"/>
       <c r="D72" s="44"/>
-      <c r="E72" s="173" t="s">
-        <v>59</v>
-      </c>
-      <c r="F72" s="155"/>
-      <c r="G72" s="115"/>
-      <c r="H72" s="53"/>
-      <c r="I72" s="54"/>
-      <c r="J72" s="161"/>
+      <c r="E72" s="208" t="s">
+        <v>93</v>
+      </c>
+      <c r="F72" s="200" t="s">
+        <v>92</v>
+      </c>
+      <c r="G72" s="201">
+        <v>4</v>
+      </c>
+      <c r="H72" s="202"/>
+      <c r="I72" s="203"/>
+      <c r="J72" s="160"/>
       <c r="K72" s="48"/>
       <c r="L72" s="49"/>
       <c r="M72" s="56"/>
     </row>
     <row r="73" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="C73" s="43"/>
       <c r="D73" s="44"/>
-      <c r="E73" s="173" t="s">
-        <v>88</v>
-      </c>
-      <c r="F73" s="57" t="s">
-        <v>76</v>
-      </c>
-      <c r="G73" s="115">
-        <v>3</v>
-      </c>
-      <c r="H73" s="53">
-        <v>42786</v>
-      </c>
-      <c r="I73" s="54">
-        <v>42790</v>
-      </c>
-      <c r="J73" s="161"/>
+      <c r="E73" s="174" t="s">
+        <v>68</v>
+      </c>
+      <c r="F73" s="154"/>
+      <c r="G73" s="115"/>
+      <c r="H73" s="53"/>
+      <c r="I73" s="54"/>
+      <c r="J73" s="160"/>
       <c r="K73" s="48"/>
       <c r="L73" s="49"/>
       <c r="M73" s="56"/>
@@ -3810,14 +3843,14 @@
       </c>
       <c r="C74" s="43"/>
       <c r="D74" s="44"/>
-      <c r="E74" s="173" t="s">
-        <v>60</v>
-      </c>
-      <c r="F74" s="155"/>
+      <c r="E74" s="172" t="s">
+        <v>57</v>
+      </c>
+      <c r="F74" s="57"/>
       <c r="G74" s="115"/>
       <c r="H74" s="53"/>
       <c r="I74" s="54"/>
-      <c r="J74" s="161"/>
+      <c r="J74" s="160"/>
       <c r="K74" s="48"/>
       <c r="L74" s="49"/>
       <c r="M74" s="56"/>
@@ -3828,8 +3861,8 @@
       </c>
       <c r="C75" s="43"/>
       <c r="D75" s="44"/>
-      <c r="E75" s="173" t="s">
-        <v>89</v>
+      <c r="E75" s="172" t="s">
+        <v>86</v>
       </c>
       <c r="F75" s="57" t="s">
         <v>76</v>
@@ -3843,24 +3876,25 @@
       <c r="I75" s="54">
         <v>42790</v>
       </c>
-      <c r="J75" s="161"/>
+      <c r="J75" s="160"/>
       <c r="K75" s="48"/>
       <c r="L75" s="49"/>
-      <c r="M75" s="56" t="s">
-        <v>123</v>
-      </c>
+      <c r="M75" s="56"/>
     </row>
     <row r="76" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="C76" s="43"/>
       <c r="D76" s="44"/>
-      <c r="E76" s="176" t="s">
-        <v>67</v>
-      </c>
-      <c r="F76" s="155"/>
+      <c r="E76" s="172" t="s">
+        <v>58</v>
+      </c>
+      <c r="F76" s="57"/>
       <c r="G76" s="115"/>
       <c r="H76" s="53"/>
       <c r="I76" s="54"/>
-      <c r="J76" s="161"/>
+      <c r="J76" s="160"/>
       <c r="K76" s="48"/>
       <c r="L76" s="49"/>
       <c r="M76" s="56"/>
@@ -3871,40 +3905,37 @@
       </c>
       <c r="C77" s="43"/>
       <c r="D77" s="44"/>
-      <c r="E77" s="173" t="s">
-        <v>61</v>
-      </c>
-      <c r="F77" s="57"/>
-      <c r="G77" s="115"/>
-      <c r="H77" s="53"/>
-      <c r="I77" s="54"/>
-      <c r="J77" s="161"/>
+      <c r="E77" s="172" t="s">
+        <v>87</v>
+      </c>
+      <c r="F77" s="57" t="s">
+        <v>76</v>
+      </c>
+      <c r="G77" s="115">
+        <v>3</v>
+      </c>
+      <c r="H77" s="53">
+        <v>42786</v>
+      </c>
+      <c r="I77" s="54">
+        <v>42790</v>
+      </c>
+      <c r="J77" s="160"/>
       <c r="K77" s="48"/>
       <c r="L77" s="49"/>
       <c r="M77" s="56"/>
     </row>
     <row r="78" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="C78" s="43"/>
       <c r="D78" s="44"/>
-      <c r="E78" s="173" t="s">
-        <v>90</v>
-      </c>
-      <c r="F78" s="57" t="s">
-        <v>76</v>
-      </c>
-      <c r="G78" s="115">
-        <v>3</v>
-      </c>
-      <c r="H78" s="53">
-        <v>42786</v>
-      </c>
-      <c r="I78" s="54">
-        <v>42790</v>
-      </c>
-      <c r="J78" s="161"/>
+      <c r="E78" s="174" t="s">
+        <v>66</v>
+      </c>
+      <c r="F78" s="154"/>
+      <c r="G78" s="115"/>
+      <c r="H78" s="53"/>
+      <c r="I78" s="54"/>
+      <c r="J78" s="160"/>
       <c r="K78" s="48"/>
       <c r="L78" s="49"/>
       <c r="M78" s="56"/>
@@ -3914,28 +3945,18 @@
         <v>22</v>
       </c>
       <c r="C79" s="43"/>
-      <c r="D79" s="215"/>
-      <c r="E79" s="216" t="s">
-        <v>62</v>
-      </c>
-      <c r="F79" s="220" t="s">
-        <v>76</v>
-      </c>
-      <c r="G79" s="207">
-        <v>3</v>
-      </c>
-      <c r="H79" s="208">
-        <v>42786</v>
-      </c>
-      <c r="I79" s="209">
-        <v>42790</v>
-      </c>
-      <c r="J79" s="210"/>
-      <c r="K79" s="202"/>
-      <c r="L79" s="203"/>
-      <c r="M79" s="212" t="s">
-        <v>124</v>
-      </c>
+      <c r="D79" s="44"/>
+      <c r="E79" s="172" t="s">
+        <v>119</v>
+      </c>
+      <c r="F79" s="57"/>
+      <c r="G79" s="115"/>
+      <c r="H79" s="53"/>
+      <c r="I79" s="54"/>
+      <c r="J79" s="160"/>
+      <c r="K79" s="48"/>
+      <c r="L79" s="49"/>
+      <c r="M79" s="56"/>
     </row>
     <row r="80" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
@@ -3943,8 +3964,8 @@
       </c>
       <c r="C80" s="43"/>
       <c r="D80" s="44"/>
-      <c r="E80" s="173" t="s">
-        <v>91</v>
+      <c r="E80" s="172" t="s">
+        <v>117</v>
       </c>
       <c r="F80" s="57" t="s">
         <v>76</v>
@@ -3953,117 +3974,106 @@
         <v>3</v>
       </c>
       <c r="H80" s="53">
-        <v>42786</v>
+        <v>42795</v>
       </c>
       <c r="I80" s="54">
-        <v>42790</v>
-      </c>
-      <c r="J80" s="161"/>
+        <v>42797</v>
+      </c>
+      <c r="J80" s="160"/>
       <c r="K80" s="48"/>
       <c r="L80" s="49"/>
-      <c r="M80" s="56"/>
-    </row>
-    <row r="81" spans="1:13" ht="17.25" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M80" s="56" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C81" s="182"/>
-      <c r="D81" s="190"/>
-      <c r="E81" s="189" t="s">
-        <v>95</v>
-      </c>
-      <c r="F81" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="C81" s="43"/>
+      <c r="D81" s="44"/>
+      <c r="E81" s="172" t="s">
+        <v>59</v>
+      </c>
+      <c r="F81" s="154"/>
+      <c r="G81" s="115"/>
+      <c r="H81" s="53"/>
+      <c r="I81" s="54"/>
+      <c r="J81" s="160"/>
+      <c r="K81" s="48"/>
+      <c r="L81" s="49"/>
+      <c r="M81" s="56"/>
+    </row>
+    <row r="82" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C82" s="43"/>
+      <c r="D82" s="44"/>
+      <c r="E82" s="172" t="s">
+        <v>88</v>
+      </c>
+      <c r="F82" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="G81" s="184">
-        <v>25</v>
-      </c>
-      <c r="H81" s="53">
-        <v>42781</v>
-      </c>
-      <c r="I81" s="54">
-        <v>42790</v>
-      </c>
-      <c r="J81" s="185"/>
-      <c r="K81" s="186"/>
-      <c r="L81" s="187"/>
-      <c r="M81" s="188" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C82" s="5">
-        <v>4</v>
-      </c>
-      <c r="D82" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="E82" s="35"/>
-      <c r="F82" s="8"/>
-      <c r="G82" s="9">
-        <f>SUM(G83:G123)</f>
-        <v>172</v>
-      </c>
-      <c r="H82" s="10"/>
-      <c r="I82" s="11"/>
-      <c r="J82" s="12"/>
-      <c r="K82" s="13"/>
-      <c r="L82" s="14"/>
-      <c r="M82" s="15"/>
+      <c r="G82" s="115">
+        <v>3</v>
+      </c>
+      <c r="H82" s="53">
+        <v>42795</v>
+      </c>
+      <c r="I82" s="54">
+        <v>42797</v>
+      </c>
+      <c r="J82" s="160"/>
+      <c r="K82" s="48"/>
+      <c r="L82" s="49"/>
+      <c r="M82" s="56"/>
     </row>
     <row r="83" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
       <c r="C83" s="43"/>
       <c r="D83" s="44"/>
-      <c r="E83" s="174" t="s">
-        <v>63</v>
-      </c>
-      <c r="F83" s="155"/>
+      <c r="E83" s="175" t="s">
+        <v>67</v>
+      </c>
+      <c r="F83" s="154"/>
       <c r="G83" s="115"/>
       <c r="H83" s="53"/>
       <c r="I83" s="54"/>
-      <c r="J83" s="161"/>
+      <c r="J83" s="160"/>
       <c r="K83" s="48"/>
       <c r="L83" s="49"/>
       <c r="M83" s="56"/>
     </row>
     <row r="84" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="1" t="s">
+      <c r="A84" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C84" s="43"/>
       <c r="D84" s="44"/>
-      <c r="E84" s="205" t="s">
-        <v>116</v>
-      </c>
-      <c r="F84" s="206" t="s">
-        <v>118</v>
-      </c>
-      <c r="G84" s="207">
-        <v>4</v>
-      </c>
-      <c r="H84" s="208">
-        <v>42782</v>
-      </c>
-      <c r="I84" s="209">
-        <v>42784</v>
-      </c>
-      <c r="J84" s="210"/>
-      <c r="K84" s="211"/>
-      <c r="L84" s="203"/>
-      <c r="M84" s="212"/>
+      <c r="E84" s="172" t="s">
+        <v>61</v>
+      </c>
+      <c r="F84" s="57"/>
+      <c r="G84" s="115"/>
+      <c r="H84" s="53"/>
+      <c r="I84" s="54"/>
+      <c r="J84" s="160"/>
+      <c r="K84" s="48"/>
+      <c r="L84" s="49"/>
+      <c r="M84" s="56"/>
     </row>
     <row r="85" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="1" t="s">
+      <c r="A85" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C85" s="43"/>
       <c r="D85" s="44"/>
-      <c r="E85" s="152" t="s">
-        <v>110</v>
-      </c>
-      <c r="F85" s="155" t="s">
-        <v>113</v>
+      <c r="E85" s="172" t="s">
+        <v>90</v>
+      </c>
+      <c r="F85" s="57" t="s">
+        <v>76</v>
       </c>
       <c r="G85" s="115">
         <v>3</v>
@@ -4071,157 +4081,155 @@
       <c r="H85" s="53">
         <v>42795</v>
       </c>
-      <c r="I85" s="53">
+      <c r="I85" s="54">
         <v>42797</v>
       </c>
-      <c r="J85" s="161"/>
-      <c r="K85" s="53"/>
-      <c r="L85" s="194"/>
+      <c r="J85" s="160"/>
+      <c r="K85" s="48"/>
+      <c r="L85" s="49"/>
       <c r="M85" s="56"/>
     </row>
     <row r="86" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="1" t="s">
+      <c r="A86" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C86" s="43"/>
-      <c r="D86" s="44"/>
-      <c r="E86" s="152" t="s">
-        <v>97</v>
-      </c>
-      <c r="F86" s="155" t="s">
-        <v>113</v>
+      <c r="D86" s="207"/>
+      <c r="E86" s="172" t="s">
+        <v>62</v>
+      </c>
+      <c r="F86" s="57" t="s">
+        <v>76</v>
       </c>
       <c r="G86" s="115">
         <v>3</v>
       </c>
       <c r="H86" s="53">
-        <v>42795</v>
-      </c>
-      <c r="I86" s="53">
-        <v>42797</v>
-      </c>
-      <c r="J86" s="161"/>
-      <c r="K86" s="53"/>
-      <c r="L86" s="42"/>
-      <c r="M86" s="56"/>
+        <v>42800</v>
+      </c>
+      <c r="I86" s="54">
+        <v>42804</v>
+      </c>
+      <c r="J86" s="160"/>
+      <c r="K86" s="48"/>
+      <c r="L86" s="49"/>
+      <c r="M86" s="56" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="87" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="1" t="s">
+      <c r="A87" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C87" s="43"/>
       <c r="D87" s="44"/>
-      <c r="E87" s="173" t="s">
-        <v>54</v>
-      </c>
-      <c r="F87" s="155" t="s">
-        <v>112</v>
+      <c r="E87" s="172" t="s">
+        <v>91</v>
+      </c>
+      <c r="F87" s="57" t="s">
+        <v>76</v>
       </c>
       <c r="G87" s="115">
         <v>3</v>
       </c>
       <c r="H87" s="53">
-        <v>42786</v>
+        <v>42800</v>
       </c>
       <c r="I87" s="54">
-        <v>42790</v>
-      </c>
-      <c r="J87" s="161"/>
-      <c r="K87" s="53"/>
-      <c r="L87" s="42"/>
+        <v>42804</v>
+      </c>
+      <c r="J87" s="160"/>
+      <c r="K87" s="48"/>
+      <c r="L87" s="49"/>
       <c r="M87" s="56"/>
     </row>
-    <row r="88" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C88" s="43"/>
-      <c r="D88" s="44"/>
-      <c r="E88" s="173" t="s">
-        <v>77</v>
-      </c>
-      <c r="F88" s="155" t="s">
-        <v>112</v>
-      </c>
-      <c r="G88" s="115">
-        <v>6</v>
+    <row r="88" spans="1:13" ht="17.25" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C88" s="181"/>
+      <c r="D88" s="189"/>
+      <c r="E88" s="188" t="s">
+        <v>94</v>
+      </c>
+      <c r="F88" s="57" t="s">
+        <v>76</v>
+      </c>
+      <c r="G88" s="183">
+        <v>25</v>
       </c>
       <c r="H88" s="53">
         <v>42786</v>
       </c>
       <c r="I88" s="54">
-        <v>42790</v>
-      </c>
-      <c r="J88" s="161"/>
-      <c r="K88" s="53"/>
-      <c r="L88" s="42"/>
-      <c r="M88" s="56"/>
-    </row>
-    <row r="89" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C89" s="43"/>
-      <c r="D89" s="44"/>
-      <c r="E89" s="173" t="s">
-        <v>55</v>
-      </c>
-      <c r="F89" s="155" t="s">
-        <v>112</v>
-      </c>
-      <c r="G89" s="115">
-        <v>3</v>
-      </c>
-      <c r="H89" s="53">
-        <v>42786</v>
-      </c>
-      <c r="I89" s="54">
-        <v>42790</v>
-      </c>
-      <c r="J89" s="161"/>
-      <c r="K89" s="53"/>
-      <c r="L89" s="42"/>
-      <c r="M89" s="56"/>
+        <v>42804</v>
+      </c>
+      <c r="J88" s="184"/>
+      <c r="K88" s="185"/>
+      <c r="L88" s="186"/>
+      <c r="M88" s="187" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C89" s="5">
+        <v>4</v>
+      </c>
+      <c r="D89" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="E89" s="35"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="9">
+        <f>SUM(G90:G129)</f>
+        <v>169</v>
+      </c>
+      <c r="H89" s="10"/>
+      <c r="I89" s="11"/>
+      <c r="J89" s="12"/>
+      <c r="K89" s="13"/>
+      <c r="L89" s="14"/>
+      <c r="M89" s="15"/>
     </row>
     <row r="90" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="B90" s="1"/>
       <c r="C90" s="43"/>
       <c r="D90" s="44"/>
       <c r="E90" s="173" t="s">
-        <v>79</v>
-      </c>
-      <c r="F90" s="155" t="s">
-        <v>112</v>
-      </c>
-      <c r="G90" s="115">
-        <v>6</v>
-      </c>
-      <c r="H90" s="53">
-        <v>42786</v>
-      </c>
-      <c r="I90" s="54">
-        <v>42790</v>
-      </c>
-      <c r="J90" s="161"/>
-      <c r="K90" s="53"/>
-      <c r="L90" s="42"/>
+        <v>63</v>
+      </c>
+      <c r="F90" s="154"/>
+      <c r="G90" s="115"/>
+      <c r="H90" s="53"/>
+      <c r="I90" s="54"/>
+      <c r="J90" s="160"/>
+      <c r="K90" s="48"/>
+      <c r="L90" s="49"/>
       <c r="M90" s="56"/>
     </row>
     <row r="91" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
+      <c r="B91" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="C91" s="43"/>
       <c r="D91" s="44"/>
-      <c r="E91" s="174" t="s">
-        <v>64</v>
-      </c>
-      <c r="F91" s="155"/>
-      <c r="G91" s="115"/>
-      <c r="H91" s="53"/>
-      <c r="I91" s="54"/>
-      <c r="J91" s="161"/>
-      <c r="K91" s="48"/>
+      <c r="E91" s="168" t="s">
+        <v>114</v>
+      </c>
+      <c r="F91" s="154" t="s">
+        <v>116</v>
+      </c>
+      <c r="G91" s="115">
+        <v>4</v>
+      </c>
+      <c r="H91" s="53">
+        <v>42782</v>
+      </c>
+      <c r="I91" s="54">
+        <v>42784</v>
+      </c>
+      <c r="J91" s="160"/>
+      <c r="K91" s="185"/>
       <c r="L91" s="49"/>
       <c r="M91" s="56"/>
     </row>
@@ -4231,24 +4239,24 @@
       </c>
       <c r="C92" s="43"/>
       <c r="D92" s="44"/>
-      <c r="E92" s="152" t="s">
-        <v>98</v>
-      </c>
-      <c r="F92" s="155" t="s">
-        <v>113</v>
+      <c r="E92" s="172" t="s">
+        <v>108</v>
+      </c>
+      <c r="F92" s="154" t="s">
+        <v>111</v>
       </c>
       <c r="G92" s="115">
         <v>3</v>
       </c>
       <c r="H92" s="53">
-        <v>42800</v>
-      </c>
-      <c r="I92" s="54">
-        <v>42804</v>
-      </c>
-      <c r="J92" s="161"/>
+        <v>42795</v>
+      </c>
+      <c r="I92" s="53">
+        <v>42797</v>
+      </c>
+      <c r="J92" s="160"/>
       <c r="K92" s="53"/>
-      <c r="L92" s="42"/>
+      <c r="L92" s="191"/>
       <c r="M92" s="56"/>
     </row>
     <row r="93" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4257,24 +4265,24 @@
       </c>
       <c r="C93" s="43"/>
       <c r="D93" s="44"/>
-      <c r="E93" s="152" t="s">
-        <v>99</v>
-      </c>
-      <c r="F93" s="155" t="s">
-        <v>113</v>
+      <c r="E93" s="172" t="s">
+        <v>96</v>
+      </c>
+      <c r="F93" s="154" t="s">
+        <v>111</v>
       </c>
       <c r="G93" s="115">
         <v>3</v>
       </c>
       <c r="H93" s="53">
-        <v>42800</v>
-      </c>
-      <c r="I93" s="54">
-        <v>42804</v>
-      </c>
-      <c r="J93" s="161"/>
+        <v>42795</v>
+      </c>
+      <c r="I93" s="53">
+        <v>42797</v>
+      </c>
+      <c r="J93" s="160"/>
       <c r="K93" s="53"/>
-      <c r="L93" s="42"/>
+      <c r="L93" s="191"/>
       <c r="M93" s="56"/>
     </row>
     <row r="94" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4283,24 +4291,24 @@
       </c>
       <c r="C94" s="43"/>
       <c r="D94" s="44"/>
-      <c r="E94" s="173" t="s">
-        <v>56</v>
-      </c>
-      <c r="F94" s="155" t="s">
-        <v>113</v>
+      <c r="E94" s="172" t="s">
+        <v>54</v>
+      </c>
+      <c r="F94" s="154" t="s">
+        <v>112</v>
       </c>
       <c r="G94" s="115">
         <v>3</v>
       </c>
       <c r="H94" s="53">
-        <v>42800</v>
+        <v>42786</v>
       </c>
       <c r="I94" s="54">
-        <v>42804</v>
-      </c>
-      <c r="J94" s="161"/>
+        <v>42790</v>
+      </c>
+      <c r="J94" s="160"/>
       <c r="K94" s="53"/>
-      <c r="L94" s="42"/>
+      <c r="L94" s="191"/>
       <c r="M94" s="56"/>
     </row>
     <row r="95" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4309,22 +4317,22 @@
       </c>
       <c r="C95" s="43"/>
       <c r="D95" s="44"/>
-      <c r="E95" s="173" t="s">
-        <v>93</v>
-      </c>
-      <c r="F95" s="155" t="s">
-        <v>113</v>
+      <c r="E95" s="172" t="s">
+        <v>77</v>
+      </c>
+      <c r="F95" s="154" t="s">
+        <v>112</v>
       </c>
       <c r="G95" s="115">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H95" s="53">
-        <v>42800</v>
+        <v>42786</v>
       </c>
       <c r="I95" s="54">
-        <v>42804</v>
-      </c>
-      <c r="J95" s="161"/>
+        <v>42790</v>
+      </c>
+      <c r="J95" s="160"/>
       <c r="K95" s="53"/>
       <c r="L95" s="42"/>
       <c r="M95" s="56"/>
@@ -4335,172 +4343,180 @@
       </c>
       <c r="C96" s="43"/>
       <c r="D96" s="44"/>
-      <c r="E96" s="152" t="s">
-        <v>100</v>
-      </c>
-      <c r="F96" s="155" t="s">
-        <v>113</v>
+      <c r="E96" s="172" t="s">
+        <v>55</v>
+      </c>
+      <c r="F96" s="154" t="s">
+        <v>112</v>
       </c>
       <c r="G96" s="115">
         <v>3</v>
       </c>
       <c r="H96" s="53">
-        <v>42800</v>
+        <v>42795</v>
       </c>
       <c r="I96" s="54">
-        <v>42804</v>
-      </c>
-      <c r="J96" s="161"/>
+        <v>42797</v>
+      </c>
+      <c r="J96" s="160"/>
       <c r="K96" s="53"/>
       <c r="L96" s="42"/>
       <c r="M96" s="56"/>
     </row>
-    <row r="97" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B97" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C97" s="43"/>
       <c r="D97" s="44"/>
-      <c r="E97" s="152" t="s">
-        <v>101</v>
-      </c>
-      <c r="F97" s="155" t="s">
-        <v>113</v>
+      <c r="E97" s="172" t="s">
+        <v>79</v>
+      </c>
+      <c r="F97" s="154" t="s">
+        <v>112</v>
       </c>
       <c r="G97" s="115">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H97" s="53">
-        <v>42800</v>
+        <v>42795</v>
       </c>
       <c r="I97" s="54">
-        <v>42804</v>
-      </c>
-      <c r="J97" s="161"/>
+        <v>42797</v>
+      </c>
+      <c r="J97" s="160"/>
       <c r="K97" s="53"/>
       <c r="L97" s="42"/>
       <c r="M97" s="56"/>
     </row>
-    <row r="98" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B98" s="1"/>
       <c r="C98" s="43"/>
       <c r="D98" s="44"/>
-      <c r="E98" s="192" t="s">
-        <v>65</v>
-      </c>
-      <c r="F98" s="155"/>
+      <c r="E98" s="173" t="s">
+        <v>64</v>
+      </c>
+      <c r="F98" s="154"/>
       <c r="G98" s="115"/>
       <c r="H98" s="53"/>
       <c r="I98" s="54"/>
-      <c r="J98" s="161"/>
+      <c r="J98" s="160"/>
       <c r="K98" s="48"/>
       <c r="L98" s="49"/>
       <c r="M98" s="56"/>
     </row>
-    <row r="99" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B99" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C99" s="43"/>
       <c r="D99" s="44"/>
-      <c r="E99" s="193" t="s">
-        <v>102</v>
-      </c>
-      <c r="F99" s="155" t="s">
-        <v>113</v>
-      </c>
-      <c r="G99" s="207">
-        <v>4</v>
+      <c r="E99" s="172" t="s">
+        <v>97</v>
+      </c>
+      <c r="F99" s="154" t="s">
+        <v>109</v>
+      </c>
+      <c r="G99" s="115">
+        <v>3</v>
       </c>
       <c r="H99" s="53">
-        <v>42800</v>
+        <v>42795</v>
       </c>
       <c r="I99" s="54">
-        <v>42804</v>
-      </c>
-      <c r="J99" s="161"/>
+        <v>42797</v>
+      </c>
+      <c r="J99" s="160"/>
       <c r="K99" s="53"/>
       <c r="L99" s="42"/>
-      <c r="M99" s="212" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="M99" s="56"/>
+    </row>
+    <row r="100" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B100" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C100" s="43"/>
       <c r="D100" s="44"/>
-      <c r="E100" s="193" t="s">
-        <v>103</v>
-      </c>
-      <c r="F100" s="155" t="s">
-        <v>113</v>
-      </c>
-      <c r="G100" s="207">
-        <v>4</v>
+      <c r="E100" s="172" t="s">
+        <v>98</v>
+      </c>
+      <c r="F100" s="154" t="s">
+        <v>109</v>
+      </c>
+      <c r="G100" s="115">
+        <v>3</v>
       </c>
       <c r="H100" s="53">
-        <v>42800</v>
+        <v>42795</v>
       </c>
       <c r="I100" s="54">
-        <v>42804</v>
-      </c>
-      <c r="J100" s="161"/>
+        <v>42797</v>
+      </c>
+      <c r="J100" s="160"/>
       <c r="K100" s="53"/>
       <c r="L100" s="42"/>
-      <c r="M100" s="212" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
+      <c r="M100" s="56"/>
+    </row>
+    <row r="101" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="C101" s="43"/>
       <c r="D101" s="44"/>
-      <c r="E101" s="175" t="s">
-        <v>68</v>
-      </c>
-      <c r="F101" s="155"/>
-      <c r="G101" s="115"/>
-      <c r="H101" s="53"/>
-      <c r="I101" s="54"/>
-      <c r="J101" s="161"/>
-      <c r="K101" s="48"/>
-      <c r="L101" s="49"/>
+      <c r="E101" s="172" t="s">
+        <v>56</v>
+      </c>
+      <c r="F101" s="154" t="s">
+        <v>109</v>
+      </c>
+      <c r="G101" s="115">
+        <v>3</v>
+      </c>
+      <c r="H101" s="53">
+        <v>42795</v>
+      </c>
+      <c r="I101" s="54">
+        <v>42797</v>
+      </c>
+      <c r="J101" s="160"/>
+      <c r="K101" s="53"/>
+      <c r="L101" s="42"/>
       <c r="M101" s="56"/>
     </row>
-    <row r="102" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B102" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C102" s="43"/>
       <c r="D102" s="44"/>
-      <c r="E102" s="173" t="s">
-        <v>57</v>
-      </c>
-      <c r="F102" s="155"/>
-      <c r="G102" s="115"/>
+      <c r="E102" s="208" t="s">
+        <v>93</v>
+      </c>
+      <c r="F102" s="154"/>
+      <c r="G102" s="201">
+        <v>8</v>
+      </c>
       <c r="H102" s="53"/>
       <c r="I102" s="54"/>
-      <c r="J102" s="161"/>
+      <c r="J102" s="160"/>
       <c r="K102" s="53"/>
-      <c r="L102" s="49"/>
+      <c r="L102" s="42"/>
       <c r="M102" s="56"/>
     </row>
-    <row r="103" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B103" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C103" s="43"/>
       <c r="D103" s="44"/>
-      <c r="E103" s="173" t="s">
-        <v>86</v>
-      </c>
-      <c r="F103" s="155" t="s">
-        <v>111</v>
+      <c r="E103" s="172" t="s">
+        <v>99</v>
+      </c>
+      <c r="F103" s="154" t="s">
+        <v>112</v>
       </c>
       <c r="G103" s="115">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H103" s="53">
         <v>42795</v>
@@ -4508,305 +4524,285 @@
       <c r="I103" s="54">
         <v>42797</v>
       </c>
-      <c r="J103" s="161"/>
+      <c r="J103" s="160"/>
       <c r="K103" s="53"/>
-      <c r="L103" s="194"/>
+      <c r="L103" s="42"/>
       <c r="M103" s="56"/>
     </row>
-    <row r="104" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B104" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C104" s="43"/>
       <c r="D104" s="44"/>
-      <c r="E104" s="173" t="s">
-        <v>58</v>
-      </c>
-      <c r="F104" s="155"/>
-      <c r="G104" s="115"/>
-      <c r="H104" s="53"/>
-      <c r="I104" s="54"/>
-      <c r="J104" s="161"/>
+      <c r="E104" s="172" t="s">
+        <v>100</v>
+      </c>
+      <c r="F104" s="154" t="s">
+        <v>112</v>
+      </c>
+      <c r="G104" s="115">
+        <v>3</v>
+      </c>
+      <c r="H104" s="53">
+        <v>42795</v>
+      </c>
+      <c r="I104" s="54">
+        <v>42797</v>
+      </c>
+      <c r="J104" s="160"/>
       <c r="K104" s="53"/>
-      <c r="L104" s="49"/>
+      <c r="L104" s="42"/>
       <c r="M104" s="56"/>
     </row>
-    <row r="105" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="1" t="s">
-        <v>22</v>
-      </c>
+    <row r="105" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B105" s="1"/>
       <c r="C105" s="43"/>
       <c r="D105" s="44"/>
       <c r="E105" s="173" t="s">
-        <v>87</v>
-      </c>
-      <c r="F105" s="155" t="s">
-        <v>111</v>
-      </c>
-      <c r="G105" s="207">
-        <v>7</v>
-      </c>
-      <c r="H105" s="53">
-        <v>42795</v>
-      </c>
-      <c r="I105" s="54">
-        <v>42797</v>
-      </c>
-      <c r="J105" s="161"/>
-      <c r="K105" s="54"/>
-      <c r="L105" s="42"/>
-      <c r="M105" s="212" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="1"/>
+        <v>65</v>
+      </c>
+      <c r="F105" s="154"/>
+      <c r="G105" s="115"/>
+      <c r="H105" s="53"/>
+      <c r="I105" s="54"/>
+      <c r="J105" s="160"/>
+      <c r="K105" s="48"/>
+      <c r="L105" s="49"/>
+      <c r="M105" s="56"/>
+    </row>
+    <row r="106" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B106" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="C106" s="43"/>
       <c r="D106" s="44"/>
-      <c r="E106" s="175" t="s">
-        <v>66</v>
-      </c>
-      <c r="F106" s="155"/>
-      <c r="G106" s="115"/>
-      <c r="H106" s="53"/>
-      <c r="I106" s="54"/>
-      <c r="J106" s="161"/>
-      <c r="K106" s="48"/>
-      <c r="L106" s="49"/>
-      <c r="M106" s="56"/>
-    </row>
-    <row r="107" spans="1:13" s="160" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="213"/>
-      <c r="B107" s="213" t="s">
-        <v>22</v>
-      </c>
-      <c r="C107" s="214"/>
-      <c r="D107" s="215"/>
-      <c r="E107" s="219" t="s">
-        <v>104</v>
-      </c>
-      <c r="F107" s="206" t="s">
-        <v>113</v>
-      </c>
-      <c r="G107" s="207">
-        <v>7</v>
-      </c>
-      <c r="H107" s="208">
+      <c r="E106" s="172" t="s">
+        <v>101</v>
+      </c>
+      <c r="F106" s="154" t="s">
+        <v>109</v>
+      </c>
+      <c r="G106" s="115">
+        <v>4</v>
+      </c>
+      <c r="H106" s="53">
         <v>42800</v>
       </c>
-      <c r="I107" s="209">
+      <c r="I106" s="54">
         <v>42804</v>
       </c>
-      <c r="J107" s="210"/>
-      <c r="K107" s="208"/>
-      <c r="L107" s="217"/>
-      <c r="M107" s="212" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" s="160" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="213"/>
-      <c r="B108" s="213" t="s">
-        <v>22</v>
-      </c>
-      <c r="C108" s="214"/>
-      <c r="D108" s="215"/>
-      <c r="E108" s="216" t="s">
-        <v>119</v>
-      </c>
-      <c r="F108" s="206" t="s">
-        <v>113</v>
-      </c>
-      <c r="G108" s="207">
-        <v>6</v>
-      </c>
-      <c r="H108" s="208">
+      <c r="J106" s="160"/>
+      <c r="K106" s="53"/>
+      <c r="L106" s="42"/>
+      <c r="M106" s="56" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="107" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B107" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C107" s="43"/>
+      <c r="D107" s="44"/>
+      <c r="E107" s="172" t="s">
+        <v>102</v>
+      </c>
+      <c r="F107" s="154" t="s">
+        <v>109</v>
+      </c>
+      <c r="G107" s="115">
+        <v>4</v>
+      </c>
+      <c r="H107" s="53">
         <v>42800</v>
       </c>
-      <c r="I108" s="209">
+      <c r="I107" s="54">
         <v>42804</v>
       </c>
-      <c r="J108" s="210"/>
-      <c r="K108" s="209"/>
-      <c r="L108" s="217"/>
-      <c r="M108" s="212"/>
-    </row>
-    <row r="109" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="J107" s="160"/>
+      <c r="K107" s="53"/>
+      <c r="L107" s="42"/>
+      <c r="M107" s="56" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="108" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B108" s="1"/>
+      <c r="C108" s="43"/>
+      <c r="D108" s="44"/>
+      <c r="E108" s="174" t="s">
+        <v>68</v>
+      </c>
+      <c r="F108" s="154"/>
+      <c r="G108" s="115"/>
+      <c r="H108" s="53"/>
+      <c r="I108" s="54"/>
+      <c r="J108" s="160"/>
+      <c r="K108" s="48"/>
+      <c r="L108" s="49"/>
+      <c r="M108" s="56"/>
+    </row>
+    <row r="109" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B109" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C109" s="43"/>
       <c r="D109" s="44"/>
-      <c r="E109" s="173" t="s">
-        <v>59</v>
-      </c>
-      <c r="F109" s="155" t="s">
-        <v>111</v>
-      </c>
-      <c r="G109" s="207">
-        <v>4</v>
-      </c>
-      <c r="H109" s="53">
-        <v>42795</v>
-      </c>
-      <c r="I109" s="54">
-        <v>42797</v>
-      </c>
-      <c r="J109" s="161"/>
-      <c r="K109" s="54"/>
-      <c r="L109" s="42"/>
-      <c r="M109" s="212" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="E109" s="172" t="s">
+        <v>57</v>
+      </c>
+      <c r="F109" s="154"/>
+      <c r="G109" s="115"/>
+      <c r="H109" s="53"/>
+      <c r="I109" s="54"/>
+      <c r="J109" s="160"/>
+      <c r="K109" s="53"/>
+      <c r="L109" s="49"/>
+      <c r="M109" s="56"/>
+    </row>
+    <row r="110" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B110" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C110" s="43"/>
       <c r="D110" s="44"/>
-      <c r="E110" s="173" t="s">
-        <v>88</v>
-      </c>
-      <c r="F110" s="155" t="s">
-        <v>111</v>
+      <c r="E110" s="172" t="s">
+        <v>86</v>
+      </c>
+      <c r="F110" s="154" t="s">
+        <v>109</v>
       </c>
       <c r="G110" s="115">
         <v>6</v>
       </c>
       <c r="H110" s="53">
-        <v>42795</v>
+        <v>42800</v>
       </c>
       <c r="I110" s="54">
-        <v>42797</v>
-      </c>
-      <c r="J110" s="161"/>
-      <c r="K110" s="54"/>
-      <c r="L110" s="42"/>
+        <v>42804</v>
+      </c>
+      <c r="J110" s="160"/>
+      <c r="K110" s="53"/>
+      <c r="L110" s="191"/>
       <c r="M110" s="56"/>
     </row>
-    <row r="111" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B111" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C111" s="43"/>
       <c r="D111" s="44"/>
-      <c r="E111" s="173" t="s">
-        <v>60</v>
-      </c>
-      <c r="F111" s="155" t="s">
-        <v>111</v>
-      </c>
-      <c r="G111" s="115">
-        <v>3</v>
-      </c>
-      <c r="H111" s="53">
-        <v>42800</v>
-      </c>
-      <c r="I111" s="54">
-        <v>42802</v>
-      </c>
-      <c r="J111" s="161"/>
+      <c r="E111" s="172" t="s">
+        <v>58</v>
+      </c>
+      <c r="F111" s="154"/>
+      <c r="G111" s="115"/>
+      <c r="H111" s="53"/>
+      <c r="I111" s="54"/>
+      <c r="J111" s="160"/>
       <c r="K111" s="53"/>
-      <c r="L111" s="42"/>
+      <c r="L111" s="49"/>
       <c r="M111" s="56"/>
     </row>
-    <row r="112" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B112" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C112" s="43"/>
       <c r="D112" s="44"/>
-      <c r="E112" s="173" t="s">
-        <v>89</v>
-      </c>
-      <c r="F112" s="155" t="s">
-        <v>111</v>
+      <c r="E112" s="172" t="s">
+        <v>87</v>
+      </c>
+      <c r="F112" s="154" t="s">
+        <v>112</v>
       </c>
       <c r="G112" s="115">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H112" s="53">
-        <v>42800</v>
+        <v>42795</v>
       </c>
       <c r="I112" s="54">
-        <v>42802</v>
-      </c>
-      <c r="J112" s="161"/>
-      <c r="K112" s="53"/>
+        <v>42797</v>
+      </c>
+      <c r="J112" s="160"/>
+      <c r="K112" s="54"/>
       <c r="L112" s="42"/>
       <c r="M112" s="56" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="113" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="B113" s="1"/>
       <c r="C113" s="43"/>
       <c r="D113" s="44"/>
-      <c r="E113" s="193" t="s">
-        <v>105</v>
-      </c>
-      <c r="F113" s="155" t="s">
+      <c r="E113" s="174" t="s">
+        <v>66</v>
+      </c>
+      <c r="F113" s="154"/>
+      <c r="G113" s="115"/>
+      <c r="H113" s="53"/>
+      <c r="I113" s="54"/>
+      <c r="J113" s="160"/>
+      <c r="K113" s="48"/>
+      <c r="L113" s="49"/>
+      <c r="M113" s="56"/>
+    </row>
+    <row r="114" spans="1:13" s="159" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="205"/>
+      <c r="B114" s="205" t="s">
+        <v>22</v>
+      </c>
+      <c r="C114" s="206"/>
+      <c r="D114" s="207"/>
+      <c r="E114" s="172" t="s">
+        <v>103</v>
+      </c>
+      <c r="F114" s="154" t="s">
         <v>111</v>
       </c>
-      <c r="G113" s="115">
-        <v>3</v>
-      </c>
-      <c r="H113" s="53">
-        <v>42800</v>
-      </c>
-      <c r="I113" s="54">
-        <v>42802</v>
-      </c>
-      <c r="J113" s="161"/>
-      <c r="K113" s="53"/>
-      <c r="L113" s="42"/>
-      <c r="M113" s="56"/>
-    </row>
-    <row r="114" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C114" s="43"/>
-      <c r="D114" s="44"/>
-      <c r="E114" s="193" t="s">
-        <v>106</v>
-      </c>
-      <c r="F114" s="155" t="s">
-        <v>111</v>
-      </c>
-      <c r="G114" s="207">
-        <v>4</v>
+      <c r="G114" s="115">
+        <v>7</v>
       </c>
       <c r="H114" s="53">
         <v>42800</v>
       </c>
       <c r="I114" s="54">
-        <v>42802</v>
-      </c>
-      <c r="J114" s="161"/>
+        <v>42804</v>
+      </c>
+      <c r="J114" s="160"/>
       <c r="K114" s="53"/>
       <c r="L114" s="42"/>
-      <c r="M114" s="212" t="s">
+      <c r="M114" s="56" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="115" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="1"/>
-      <c r="C115" s="43"/>
-      <c r="D115" s="44"/>
-      <c r="E115" s="176" t="s">
-        <v>67</v>
-      </c>
-      <c r="F115" s="155"/>
-      <c r="G115" s="115"/>
-      <c r="H115" s="53"/>
-      <c r="I115" s="54"/>
-      <c r="J115" s="161"/>
-      <c r="K115" s="48"/>
-      <c r="L115" s="49"/>
+    <row r="115" spans="1:13" s="159" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="205"/>
+      <c r="B115" s="205" t="s">
+        <v>22</v>
+      </c>
+      <c r="C115" s="206"/>
+      <c r="D115" s="207"/>
+      <c r="E115" s="172" t="s">
+        <v>117</v>
+      </c>
+      <c r="F115" s="154" t="s">
+        <v>111</v>
+      </c>
+      <c r="G115" s="115">
+        <v>6</v>
+      </c>
+      <c r="H115" s="53">
+        <v>42800</v>
+      </c>
+      <c r="I115" s="54">
+        <v>42804</v>
+      </c>
+      <c r="J115" s="160"/>
+      <c r="K115" s="54"/>
+      <c r="L115" s="42"/>
       <c r="M115" s="56"/>
     </row>
     <row r="116" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4815,25 +4811,27 @@
       </c>
       <c r="C116" s="43"/>
       <c r="D116" s="44"/>
-      <c r="E116" s="152" t="s">
-        <v>107</v>
-      </c>
-      <c r="F116" s="155" t="s">
-        <v>111</v>
-      </c>
-      <c r="G116" s="184">
-        <v>3</v>
+      <c r="E116" s="172" t="s">
+        <v>59</v>
+      </c>
+      <c r="F116" s="154" t="s">
+        <v>109</v>
+      </c>
+      <c r="G116" s="115">
+        <v>4</v>
       </c>
       <c r="H116" s="53">
         <v>42800</v>
       </c>
       <c r="I116" s="54">
-        <v>42802</v>
-      </c>
-      <c r="J116" s="161"/>
-      <c r="K116" s="53"/>
+        <v>42804</v>
+      </c>
+      <c r="J116" s="160"/>
+      <c r="K116" s="54"/>
       <c r="L116" s="42"/>
-      <c r="M116" s="56"/>
+      <c r="M116" s="56" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="117" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B117" s="1" t="s">
@@ -4841,23 +4839,23 @@
       </c>
       <c r="C117" s="43"/>
       <c r="D117" s="44"/>
-      <c r="E117" s="173" t="s">
-        <v>61</v>
-      </c>
-      <c r="F117" s="155" t="s">
-        <v>114</v>
-      </c>
-      <c r="G117" s="184">
-        <v>3</v>
+      <c r="E117" s="172" t="s">
+        <v>88</v>
+      </c>
+      <c r="F117" s="154" t="s">
+        <v>109</v>
+      </c>
+      <c r="G117" s="115">
+        <v>6</v>
       </c>
       <c r="H117" s="53">
-        <v>42795</v>
+        <v>42800</v>
       </c>
       <c r="I117" s="54">
-        <v>42797</v>
-      </c>
-      <c r="J117" s="161"/>
-      <c r="K117" s="53"/>
+        <v>42804</v>
+      </c>
+      <c r="J117" s="160"/>
+      <c r="K117" s="54"/>
       <c r="L117" s="42"/>
       <c r="M117" s="56"/>
     </row>
@@ -4867,53 +4865,52 @@
       </c>
       <c r="C118" s="43"/>
       <c r="D118" s="44"/>
-      <c r="E118" s="173" t="s">
-        <v>90</v>
-      </c>
-      <c r="F118" s="155" t="s">
-        <v>114</v>
+      <c r="E118" s="172" t="s">
+        <v>60</v>
+      </c>
+      <c r="F118" s="154" t="s">
+        <v>110</v>
       </c>
       <c r="G118" s="115">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H118" s="53">
-        <v>42795</v>
+        <v>42786</v>
       </c>
       <c r="I118" s="54">
-        <v>42797</v>
-      </c>
-      <c r="J118" s="161"/>
+        <v>42790</v>
+      </c>
+      <c r="J118" s="160"/>
       <c r="K118" s="53"/>
       <c r="L118" s="42"/>
       <c r="M118" s="56"/>
     </row>
-    <row r="119" spans="1:13" s="160" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="213"/>
-      <c r="B119" s="213" t="s">
-        <v>22</v>
-      </c>
-      <c r="C119" s="214"/>
-      <c r="D119" s="215"/>
-      <c r="E119" s="216" t="s">
-        <v>62</v>
-      </c>
-      <c r="F119" s="206" t="s">
-        <v>114</v>
-      </c>
-      <c r="G119" s="218">
-        <v>11</v>
-      </c>
-      <c r="H119" s="208">
-        <v>42795</v>
-      </c>
-      <c r="I119" s="209">
-        <v>42797</v>
-      </c>
-      <c r="J119" s="210"/>
-      <c r="K119" s="208"/>
-      <c r="L119" s="217"/>
-      <c r="M119" s="212" t="s">
-        <v>124</v>
+    <row r="119" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B119" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C119" s="43"/>
+      <c r="D119" s="44"/>
+      <c r="E119" s="172" t="s">
+        <v>89</v>
+      </c>
+      <c r="F119" s="154" t="s">
+        <v>110</v>
+      </c>
+      <c r="G119" s="115">
+        <v>2</v>
+      </c>
+      <c r="H119" s="53">
+        <v>42786</v>
+      </c>
+      <c r="I119" s="54">
+        <v>42790</v>
+      </c>
+      <c r="J119" s="160"/>
+      <c r="K119" s="53"/>
+      <c r="L119" s="42"/>
+      <c r="M119" s="56" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="120" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4922,22 +4919,22 @@
       </c>
       <c r="C120" s="43"/>
       <c r="D120" s="44"/>
-      <c r="E120" s="173" t="s">
-        <v>91</v>
-      </c>
-      <c r="F120" s="155" t="s">
-        <v>114</v>
+      <c r="E120" s="172" t="s">
+        <v>104</v>
+      </c>
+      <c r="F120" s="154" t="s">
+        <v>111</v>
       </c>
       <c r="G120" s="115">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H120" s="53">
-        <v>42795</v>
+        <v>42800</v>
       </c>
       <c r="I120" s="54">
-        <v>42797</v>
-      </c>
-      <c r="J120" s="161"/>
+        <v>42804</v>
+      </c>
+      <c r="J120" s="160"/>
       <c r="K120" s="53"/>
       <c r="L120" s="42"/>
       <c r="M120" s="56"/>
@@ -4946,301 +4943,332 @@
       <c r="B121" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C121" s="182"/>
-      <c r="D121" s="183"/>
-      <c r="E121" s="152" t="s">
-        <v>108</v>
-      </c>
-      <c r="F121" s="155" t="s">
+      <c r="C121" s="43"/>
+      <c r="D121" s="44"/>
+      <c r="E121" s="172" t="s">
+        <v>105</v>
+      </c>
+      <c r="F121" s="154" t="s">
         <v>111</v>
       </c>
-      <c r="G121" s="184">
-        <v>3</v>
+      <c r="G121" s="115">
+        <v>4</v>
       </c>
       <c r="H121" s="53">
         <v>42800</v>
       </c>
       <c r="I121" s="54">
-        <v>42802</v>
-      </c>
-      <c r="J121" s="185"/>
+        <v>42804</v>
+      </c>
+      <c r="J121" s="160"/>
       <c r="K121" s="53"/>
       <c r="L121" s="42"/>
-      <c r="M121" s="188"/>
+      <c r="M121" s="56" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="122" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B122" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C122" s="182"/>
-      <c r="D122" s="183"/>
-      <c r="E122" s="152" t="s">
-        <v>109</v>
-      </c>
-      <c r="F122" s="155" t="s">
-        <v>114</v>
-      </c>
-      <c r="G122" s="184">
+      <c r="B122" s="1"/>
+      <c r="C122" s="43"/>
+      <c r="D122" s="44"/>
+      <c r="E122" s="175" t="s">
+        <v>67</v>
+      </c>
+      <c r="F122" s="154"/>
+      <c r="G122" s="115"/>
+      <c r="H122" s="53"/>
+      <c r="I122" s="54"/>
+      <c r="J122" s="160"/>
+      <c r="K122" s="48"/>
+      <c r="L122" s="49"/>
+      <c r="M122" s="56"/>
+    </row>
+    <row r="123" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B123" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C123" s="43"/>
+      <c r="D123" s="44"/>
+      <c r="E123" s="172" t="s">
+        <v>106</v>
+      </c>
+      <c r="F123" s="154" t="s">
+        <v>112</v>
+      </c>
+      <c r="G123" s="183">
         <v>3</v>
       </c>
-      <c r="H122" s="53">
+      <c r="H123" s="53">
         <v>42800</v>
-      </c>
-      <c r="I122" s="54">
-        <v>42802</v>
-      </c>
-      <c r="J122" s="185"/>
-      <c r="K122" s="53"/>
-      <c r="L122" s="42"/>
-      <c r="M122" s="188"/>
-    </row>
-    <row r="123" spans="1:13" ht="17.25" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B123" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C123" s="182"/>
-      <c r="D123" s="183"/>
-      <c r="E123" s="173" t="s">
-        <v>94</v>
-      </c>
-      <c r="F123" s="151"/>
-      <c r="G123" s="184">
-        <v>30</v>
-      </c>
-      <c r="H123" s="53">
-        <v>42786</v>
       </c>
       <c r="I123" s="54">
         <v>42804</v>
       </c>
-      <c r="J123" s="185"/>
-      <c r="K123" s="54"/>
+      <c r="J123" s="160"/>
+      <c r="K123" s="53"/>
       <c r="L123" s="42"/>
-      <c r="M123" s="188" t="s">
+      <c r="M123" s="56"/>
+    </row>
+    <row r="124" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B124" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C124" s="43"/>
+      <c r="D124" s="44"/>
+      <c r="E124" s="172" t="s">
+        <v>61</v>
+      </c>
+      <c r="F124" s="154" t="s">
+        <v>112</v>
+      </c>
+      <c r="G124" s="183">
+        <v>3</v>
+      </c>
+      <c r="H124" s="53">
+        <v>42800</v>
+      </c>
+      <c r="I124" s="54">
+        <v>42804</v>
+      </c>
+      <c r="J124" s="160"/>
+      <c r="K124" s="53"/>
+      <c r="L124" s="42"/>
+      <c r="M124" s="56"/>
+    </row>
+    <row r="125" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B125" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C125" s="43"/>
+      <c r="D125" s="44"/>
+      <c r="E125" s="172" t="s">
+        <v>90</v>
+      </c>
+      <c r="F125" s="154" t="s">
+        <v>112</v>
+      </c>
+      <c r="G125" s="115">
+        <v>6</v>
+      </c>
+      <c r="H125" s="53">
+        <v>42800</v>
+      </c>
+      <c r="I125" s="54">
+        <v>42804</v>
+      </c>
+      <c r="J125" s="160"/>
+      <c r="K125" s="53"/>
+      <c r="L125" s="42"/>
+      <c r="M125" s="56"/>
+    </row>
+    <row r="126" spans="1:13" s="159" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="205"/>
+      <c r="B126" s="205" t="s">
+        <v>22</v>
+      </c>
+      <c r="C126" s="206"/>
+      <c r="D126" s="207"/>
+      <c r="E126" s="172" t="s">
+        <v>62</v>
+      </c>
+      <c r="F126" s="154" t="s">
+        <v>111</v>
+      </c>
+      <c r="G126" s="183">
+        <v>11</v>
+      </c>
+      <c r="H126" s="53">
+        <v>42800</v>
+      </c>
+      <c r="I126" s="54">
+        <v>42804</v>
+      </c>
+      <c r="J126" s="160"/>
+      <c r="K126" s="53"/>
+      <c r="L126" s="42"/>
+      <c r="M126" s="56" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B127" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C127" s="43"/>
+      <c r="D127" s="44"/>
+      <c r="E127" s="172" t="s">
+        <v>91</v>
+      </c>
+      <c r="F127" s="154" t="s">
+        <v>111</v>
+      </c>
+      <c r="G127" s="115">
+        <v>6</v>
+      </c>
+      <c r="H127" s="53">
+        <v>42800</v>
+      </c>
+      <c r="I127" s="54">
+        <v>42804</v>
+      </c>
+      <c r="J127" s="160"/>
+      <c r="K127" s="53"/>
+      <c r="L127" s="42"/>
+      <c r="M127" s="56"/>
+    </row>
+    <row r="128" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B128" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C128" s="181"/>
+      <c r="D128" s="182"/>
+      <c r="E128" s="172" t="s">
+        <v>107</v>
+      </c>
+      <c r="F128" s="154" t="s">
+        <v>112</v>
+      </c>
+      <c r="G128" s="183">
+        <v>3</v>
+      </c>
+      <c r="H128" s="53">
+        <v>42800</v>
+      </c>
+      <c r="I128" s="54">
+        <v>42804</v>
+      </c>
+      <c r="J128" s="184"/>
+      <c r="K128" s="53"/>
+      <c r="L128" s="42"/>
+      <c r="M128" s="187"/>
+    </row>
+    <row r="129" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B129" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C129" s="181"/>
+      <c r="D129" s="182"/>
+      <c r="E129" s="172" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C124" s="5">
+      <c r="F129" s="154"/>
+      <c r="G129" s="183">
+        <v>30</v>
+      </c>
+      <c r="H129" s="53">
+        <v>42786</v>
+      </c>
+      <c r="I129" s="54">
+        <v>42804</v>
+      </c>
+      <c r="J129" s="184"/>
+      <c r="K129" s="54"/>
+      <c r="L129" s="42"/>
+      <c r="M129" s="187" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" ht="20.25" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B130" s="1"/>
+      <c r="C130" s="181"/>
+      <c r="D130" s="182"/>
+      <c r="E130" s="208" t="s">
+        <v>129</v>
+      </c>
+      <c r="F130" s="150"/>
+      <c r="G130" s="183"/>
+      <c r="H130" s="53"/>
+      <c r="I130" s="54"/>
+      <c r="J130" s="184"/>
+      <c r="K130" s="54"/>
+      <c r="L130" s="42"/>
+      <c r="M130" s="215" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C131" s="5">
         <v>5</v>
       </c>
-      <c r="D124" s="6" t="s">
+      <c r="D131" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E124" s="71"/>
-      <c r="F124" s="8"/>
-      <c r="G124" s="9">
-        <f>SUM(G125:G132)</f>
+      <c r="E131" s="71"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="9">
+        <f>SUM(G132:G139)</f>
         <v>38</v>
       </c>
-      <c r="H124" s="10"/>
-      <c r="I124" s="11"/>
-      <c r="J124" s="12"/>
-      <c r="K124" s="13"/>
-      <c r="L124" s="14"/>
-      <c r="M124" s="15"/>
-    </row>
-    <row r="125" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C125" s="43"/>
-      <c r="D125" s="177">
+      <c r="H131" s="10"/>
+      <c r="I131" s="11"/>
+      <c r="J131" s="12"/>
+      <c r="K131" s="13"/>
+      <c r="L131" s="14"/>
+      <c r="M131" s="15"/>
+    </row>
+    <row r="132" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C132" s="43"/>
+      <c r="D132" s="176">
         <v>1</v>
       </c>
-      <c r="E125" s="179" t="s">
+      <c r="E132" s="178" t="s">
         <v>34</v>
       </c>
-      <c r="F125" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="G125" s="20">
+      <c r="F132" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="G132" s="20">
         <v>38</v>
       </c>
-      <c r="H125" s="21">
+      <c r="H132" s="21">
         <v>42807</v>
       </c>
-      <c r="I125" s="22">
+      <c r="I132" s="22">
         <v>42811</v>
       </c>
-      <c r="J125" s="23"/>
-      <c r="K125" s="39"/>
-      <c r="L125" s="40"/>
-      <c r="M125" s="136"/>
-    </row>
-    <row r="126" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C126" s="16"/>
-      <c r="D126" s="17"/>
-      <c r="E126" s="154" t="s">
+      <c r="J132" s="23"/>
+      <c r="K132" s="39"/>
+      <c r="L132" s="40"/>
+      <c r="M132" s="136"/>
+    </row>
+    <row r="133" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C133" s="16"/>
+      <c r="D133" s="17"/>
+      <c r="E133" s="153" t="s">
         <v>69</v>
       </c>
-      <c r="F126" s="155"/>
-      <c r="G126" s="82"/>
-      <c r="H126" s="21"/>
-      <c r="I126" s="24"/>
-      <c r="J126" s="162"/>
-      <c r="K126" s="72"/>
-      <c r="L126" s="40"/>
-      <c r="M126" s="163"/>
-    </row>
-    <row r="127" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C127" s="16"/>
-      <c r="D127" s="17"/>
-      <c r="E127" s="154" t="s">
-        <v>63</v>
-      </c>
-      <c r="F127" s="155"/>
-      <c r="G127" s="82"/>
-      <c r="H127" s="21"/>
-      <c r="I127" s="24"/>
-      <c r="J127" s="162"/>
-      <c r="K127" s="72"/>
-      <c r="L127" s="40"/>
-      <c r="M127" s="163"/>
-    </row>
-    <row r="128" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C128" s="16"/>
-      <c r="D128" s="17"/>
-      <c r="E128" s="152" t="s">
-        <v>64</v>
-      </c>
-      <c r="F128" s="155"/>
-      <c r="G128" s="82"/>
-      <c r="H128" s="21"/>
-      <c r="I128" s="24"/>
-      <c r="J128" s="162"/>
-      <c r="K128" s="72"/>
-      <c r="L128" s="40"/>
-      <c r="M128" s="163"/>
-    </row>
-    <row r="129" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C129" s="16"/>
-      <c r="D129" s="17"/>
-      <c r="E129" s="152" t="s">
-        <v>65</v>
-      </c>
-      <c r="F129" s="52"/>
-      <c r="G129" s="82"/>
-      <c r="H129" s="21"/>
-      <c r="I129" s="24"/>
-      <c r="J129" s="162"/>
-      <c r="K129" s="72"/>
-      <c r="L129" s="40"/>
-      <c r="M129" s="163"/>
-    </row>
-    <row r="130" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C130" s="16"/>
-      <c r="D130" s="17"/>
-      <c r="E130" s="152" t="s">
-        <v>68</v>
-      </c>
-      <c r="F130" s="52"/>
-      <c r="G130" s="82"/>
-      <c r="H130" s="21"/>
-      <c r="I130" s="24"/>
-      <c r="J130" s="162"/>
-      <c r="K130" s="72"/>
-      <c r="L130" s="40"/>
-      <c r="M130" s="163"/>
-    </row>
-    <row r="131" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C131" s="16"/>
-      <c r="D131" s="17"/>
-      <c r="E131" s="152" t="s">
-        <v>70</v>
-      </c>
-      <c r="F131" s="52"/>
-      <c r="G131" s="82"/>
-      <c r="H131" s="21"/>
-      <c r="I131" s="24"/>
-      <c r="J131" s="162"/>
-      <c r="K131" s="72"/>
-      <c r="L131" s="40"/>
-      <c r="M131" s="164"/>
-    </row>
-    <row r="132" spans="1:13" ht="17.25" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C132" s="16"/>
-      <c r="D132" s="17"/>
-      <c r="E132" s="152" t="s">
-        <v>71</v>
-      </c>
-      <c r="F132" s="52"/>
-      <c r="G132" s="82"/>
-      <c r="H132" s="21"/>
-      <c r="I132" s="24"/>
-      <c r="J132" s="162"/>
-      <c r="K132" s="72"/>
-      <c r="L132" s="40"/>
-      <c r="M132" s="164"/>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C133" s="73">
-        <v>6</v>
-      </c>
-      <c r="D133" s="74" t="s">
-        <v>35</v>
-      </c>
-      <c r="E133" s="75"/>
-      <c r="F133" s="76"/>
-      <c r="G133" s="9">
-        <f>SUM(G134:G150)</f>
-        <v>3</v>
-      </c>
-      <c r="H133" s="77"/>
-      <c r="I133" s="78"/>
-      <c r="J133" s="12"/>
-      <c r="K133" s="79"/>
-      <c r="L133" s="80"/>
-      <c r="M133" s="81"/>
+      <c r="F133" s="154"/>
+      <c r="G133" s="82"/>
+      <c r="H133" s="21"/>
+      <c r="I133" s="24"/>
+      <c r="J133" s="161"/>
+      <c r="K133" s="72"/>
+      <c r="L133" s="40"/>
+      <c r="M133" s="162"/>
     </row>
     <row r="134" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C134" s="16"/>
-      <c r="D134" s="177">
-        <v>1</v>
-      </c>
-      <c r="E134" s="180" t="s">
-        <v>35</v>
-      </c>
-      <c r="F134" s="69" t="s">
-        <v>115</v>
-      </c>
-      <c r="G134" s="82">
-        <v>3</v>
-      </c>
-      <c r="H134" s="22">
-        <v>42811</v>
-      </c>
-      <c r="I134" s="22">
-        <v>42811</v>
-      </c>
-      <c r="J134" s="55"/>
-      <c r="K134" s="22"/>
-      <c r="L134" s="24"/>
-      <c r="M134" s="163"/>
+      <c r="D134" s="17"/>
+      <c r="E134" s="153" t="s">
+        <v>63</v>
+      </c>
+      <c r="F134" s="154"/>
+      <c r="G134" s="82"/>
+      <c r="H134" s="21"/>
+      <c r="I134" s="24"/>
+      <c r="J134" s="161"/>
+      <c r="K134" s="72"/>
+      <c r="L134" s="40"/>
+      <c r="M134" s="162"/>
     </row>
     <row r="135" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
@@ -5248,17 +5276,17 @@
       </c>
       <c r="C135" s="16"/>
       <c r="D135" s="17"/>
-      <c r="E135" s="152" t="s">
-        <v>69</v>
-      </c>
-      <c r="F135" s="52"/>
+      <c r="E135" s="151" t="s">
+        <v>64</v>
+      </c>
+      <c r="F135" s="154"/>
       <c r="G135" s="82"/>
       <c r="H135" s="21"/>
       <c r="I135" s="24"/>
-      <c r="J135" s="162"/>
+      <c r="J135" s="161"/>
       <c r="K135" s="72"/>
       <c r="L135" s="40"/>
-      <c r="M135" s="163"/>
+      <c r="M135" s="162"/>
     </row>
     <row r="136" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
@@ -5266,17 +5294,17 @@
       </c>
       <c r="C136" s="16"/>
       <c r="D136" s="17"/>
-      <c r="E136" s="152" t="s">
-        <v>63</v>
+      <c r="E136" s="151" t="s">
+        <v>65</v>
       </c>
       <c r="F136" s="52"/>
       <c r="G136" s="82"/>
       <c r="H136" s="21"/>
       <c r="I136" s="24"/>
-      <c r="J136" s="162"/>
+      <c r="J136" s="161"/>
       <c r="K136" s="72"/>
       <c r="L136" s="40"/>
-      <c r="M136" s="163"/>
+      <c r="M136" s="162"/>
     </row>
     <row r="137" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
@@ -5284,17 +5312,17 @@
       </c>
       <c r="C137" s="16"/>
       <c r="D137" s="17"/>
-      <c r="E137" s="152" t="s">
-        <v>64</v>
+      <c r="E137" s="151" t="s">
+        <v>68</v>
       </c>
       <c r="F137" s="52"/>
       <c r="G137" s="82"/>
       <c r="H137" s="21"/>
-      <c r="I137" s="21"/>
-      <c r="J137" s="162"/>
+      <c r="I137" s="24"/>
+      <c r="J137" s="161"/>
       <c r="K137" s="72"/>
       <c r="L137" s="40"/>
-      <c r="M137" s="163"/>
+      <c r="M137" s="162"/>
     </row>
     <row r="138" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
@@ -5302,106 +5330,119 @@
       </c>
       <c r="C138" s="16"/>
       <c r="D138" s="17"/>
-      <c r="E138" s="152" t="s">
-        <v>65</v>
+      <c r="E138" s="151" t="s">
+        <v>70</v>
       </c>
       <c r="F138" s="52"/>
       <c r="G138" s="82"/>
       <c r="H138" s="21"/>
-      <c r="I138" s="21"/>
-      <c r="J138" s="82"/>
-      <c r="K138" s="21"/>
+      <c r="I138" s="24"/>
+      <c r="J138" s="161"/>
+      <c r="K138" s="72"/>
       <c r="L138" s="40"/>
       <c r="M138" s="163"/>
     </row>
-    <row r="139" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" ht="17.25" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C139" s="16"/>
       <c r="D139" s="17"/>
-      <c r="E139" s="152" t="s">
-        <v>68</v>
+      <c r="E139" s="151" t="s">
+        <v>71</v>
       </c>
       <c r="F139" s="52"/>
       <c r="G139" s="82"/>
       <c r="H139" s="21"/>
-      <c r="I139" s="21"/>
-      <c r="J139" s="82"/>
-      <c r="K139" s="21"/>
+      <c r="I139" s="24"/>
+      <c r="J139" s="161"/>
+      <c r="K139" s="72"/>
       <c r="L139" s="40"/>
       <c r="M139" s="163"/>
     </row>
-    <row r="140" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C140" s="16"/>
-      <c r="D140" s="17"/>
-      <c r="E140" s="152" t="s">
-        <v>70</v>
-      </c>
-      <c r="F140" s="52"/>
-      <c r="G140" s="82"/>
-      <c r="H140" s="21"/>
-      <c r="I140" s="21"/>
-      <c r="J140" s="162"/>
-      <c r="K140" s="72"/>
-      <c r="L140" s="40"/>
-      <c r="M140" s="164"/>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C140" s="73">
+        <v>6</v>
+      </c>
+      <c r="D140" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="E140" s="75"/>
+      <c r="F140" s="76"/>
+      <c r="G140" s="9">
+        <f>SUM(G141:G157)</f>
+        <v>3</v>
+      </c>
+      <c r="H140" s="77"/>
+      <c r="I140" s="78"/>
+      <c r="J140" s="12"/>
+      <c r="K140" s="79"/>
+      <c r="L140" s="80"/>
+      <c r="M140" s="81"/>
     </row>
     <row r="141" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C141" s="16"/>
-      <c r="D141" s="17"/>
-      <c r="E141" s="152" t="s">
-        <v>71</v>
-      </c>
-      <c r="F141" s="52"/>
-      <c r="G141" s="82"/>
-      <c r="H141" s="21"/>
-      <c r="I141" s="21"/>
-      <c r="J141" s="162"/>
-      <c r="K141" s="72"/>
-      <c r="L141" s="40"/>
-      <c r="M141" s="164"/>
+      <c r="D141" s="176">
+        <v>1</v>
+      </c>
+      <c r="E141" s="179" t="s">
+        <v>35</v>
+      </c>
+      <c r="F141" s="69" t="s">
+        <v>113</v>
+      </c>
+      <c r="G141" s="82">
+        <v>3</v>
+      </c>
+      <c r="H141" s="22">
+        <v>42811</v>
+      </c>
+      <c r="I141" s="22">
+        <v>42811</v>
+      </c>
+      <c r="J141" s="55"/>
+      <c r="K141" s="22"/>
+      <c r="L141" s="24"/>
+      <c r="M141" s="162"/>
     </row>
     <row r="142" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C142" s="16"/>
-      <c r="D142" s="83">
-        <v>2</v>
-      </c>
-      <c r="E142" s="84" t="s">
-        <v>36</v>
-      </c>
-      <c r="F142" s="19"/>
+      <c r="D142" s="17"/>
+      <c r="E142" s="151" t="s">
+        <v>69</v>
+      </c>
+      <c r="F142" s="52"/>
       <c r="G142" s="82"/>
       <c r="H142" s="21"/>
       <c r="I142" s="24"/>
-      <c r="J142" s="162"/>
+      <c r="J142" s="161"/>
       <c r="K142" s="72"/>
       <c r="L142" s="40"/>
-      <c r="M142" s="163"/>
+      <c r="M142" s="162"/>
     </row>
     <row r="143" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="C143" s="16"/>
-      <c r="D143" s="83"/>
-      <c r="E143" s="152" t="s">
-        <v>69</v>
+      <c r="D143" s="17"/>
+      <c r="E143" s="151" t="s">
+        <v>63</v>
       </c>
       <c r="F143" s="52"/>
       <c r="G143" s="82"/>
       <c r="H143" s="21"/>
-      <c r="I143" s="21"/>
-      <c r="J143" s="82"/>
-      <c r="K143" s="21"/>
-      <c r="L143" s="24"/>
-      <c r="M143" s="164"/>
+      <c r="I143" s="24"/>
+      <c r="J143" s="161"/>
+      <c r="K143" s="72"/>
+      <c r="L143" s="40"/>
+      <c r="M143" s="162"/>
     </row>
     <row r="144" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
@@ -5409,240 +5450,365 @@
       </c>
       <c r="C144" s="16"/>
       <c r="D144" s="17"/>
-      <c r="E144" s="152" t="s">
-        <v>63</v>
+      <c r="E144" s="151" t="s">
+        <v>64</v>
       </c>
       <c r="F144" s="52"/>
       <c r="G144" s="82"/>
       <c r="H144" s="21"/>
-      <c r="I144" s="24"/>
-      <c r="J144" s="82"/>
-      <c r="K144" s="21"/>
-      <c r="L144" s="24"/>
-      <c r="M144" s="164"/>
+      <c r="I144" s="21"/>
+      <c r="J144" s="161"/>
+      <c r="K144" s="72"/>
+      <c r="L144" s="40"/>
+      <c r="M144" s="162"/>
     </row>
     <row r="145" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C145" s="16"/>
-      <c r="D145" s="83"/>
-      <c r="E145" s="152" t="s">
-        <v>64</v>
+      <c r="D145" s="17"/>
+      <c r="E145" s="151" t="s">
+        <v>65</v>
       </c>
       <c r="F145" s="52"/>
       <c r="G145" s="82"/>
       <c r="H145" s="21"/>
-      <c r="I145" s="24"/>
+      <c r="I145" s="21"/>
       <c r="J145" s="82"/>
       <c r="K145" s="21"/>
-      <c r="L145" s="24"/>
-      <c r="M145" s="163"/>
+      <c r="L145" s="40"/>
+      <c r="M145" s="162"/>
     </row>
     <row r="146" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C146" s="87"/>
-      <c r="D146" s="88"/>
-      <c r="E146" s="152" t="s">
-        <v>65</v>
+      <c r="C146" s="16"/>
+      <c r="D146" s="17"/>
+      <c r="E146" s="151" t="s">
+        <v>68</v>
       </c>
       <c r="F146" s="52"/>
       <c r="G146" s="82"/>
       <c r="H146" s="21"/>
-      <c r="I146" s="24"/>
+      <c r="I146" s="21"/>
       <c r="J146" s="82"/>
       <c r="K146" s="21"/>
-      <c r="L146" s="24"/>
-      <c r="M146" s="165"/>
+      <c r="L146" s="40"/>
+      <c r="M146" s="162"/>
     </row>
     <row r="147" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C147" s="87"/>
-      <c r="D147" s="88"/>
-      <c r="E147" s="152" t="s">
-        <v>68</v>
+      <c r="C147" s="16"/>
+      <c r="D147" s="17"/>
+      <c r="E147" s="151" t="s">
+        <v>70</v>
       </c>
       <c r="F147" s="52"/>
       <c r="G147" s="82"/>
-      <c r="H147" s="86"/>
-      <c r="I147" s="86"/>
-      <c r="J147" s="82"/>
-      <c r="K147" s="86"/>
-      <c r="L147" s="24"/>
-      <c r="M147" s="165"/>
+      <c r="H147" s="21"/>
+      <c r="I147" s="21"/>
+      <c r="J147" s="161"/>
+      <c r="K147" s="72"/>
+      <c r="L147" s="40"/>
+      <c r="M147" s="163"/>
     </row>
     <row r="148" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C148" s="87"/>
-      <c r="D148" s="88"/>
-      <c r="E148" s="152" t="s">
-        <v>70</v>
+      <c r="C148" s="16"/>
+      <c r="D148" s="17"/>
+      <c r="E148" s="151" t="s">
+        <v>71</v>
       </c>
       <c r="F148" s="52"/>
       <c r="G148" s="82"/>
-      <c r="H148" s="86"/>
-      <c r="I148" s="86"/>
-      <c r="J148" s="85"/>
-      <c r="K148" s="86"/>
-      <c r="L148" s="24"/>
-      <c r="M148" s="165"/>
+      <c r="H148" s="21"/>
+      <c r="I148" s="21"/>
+      <c r="J148" s="161"/>
+      <c r="K148" s="72"/>
+      <c r="L148" s="40"/>
+      <c r="M148" s="163"/>
     </row>
     <row r="149" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C149" s="87"/>
-      <c r="D149" s="88"/>
-      <c r="E149" s="152" t="s">
-        <v>71</v>
-      </c>
-      <c r="F149" s="52"/>
+      <c r="C149" s="16"/>
+      <c r="D149" s="83">
+        <v>2</v>
+      </c>
+      <c r="E149" s="84" t="s">
+        <v>36</v>
+      </c>
+      <c r="F149" s="19"/>
       <c r="G149" s="82"/>
-      <c r="H149" s="86"/>
-      <c r="I149" s="86"/>
-      <c r="J149" s="85"/>
-      <c r="K149" s="86"/>
-      <c r="L149" s="24"/>
-      <c r="M149" s="166"/>
-    </row>
-    <row r="150" spans="1:13" ht="17.25" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C150" s="87"/>
-      <c r="D150" s="88"/>
-      <c r="E150" s="152" t="s">
-        <v>74</v>
+      <c r="H149" s="21"/>
+      <c r="I149" s="24"/>
+      <c r="J149" s="161"/>
+      <c r="K149" s="72"/>
+      <c r="L149" s="40"/>
+      <c r="M149" s="162"/>
+    </row>
+    <row r="150" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C150" s="16"/>
+      <c r="D150" s="83"/>
+      <c r="E150" s="151" t="s">
+        <v>69</v>
       </c>
       <c r="F150" s="52"/>
       <c r="G150" s="82"/>
-      <c r="H150" s="59"/>
-      <c r="I150" s="59"/>
-      <c r="J150" s="85"/>
-      <c r="K150" s="86"/>
+      <c r="H150" s="21"/>
+      <c r="I150" s="21"/>
+      <c r="J150" s="82"/>
+      <c r="K150" s="21"/>
       <c r="L150" s="24"/>
-      <c r="M150" s="167"/>
-    </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C151" s="73">
-        <v>7</v>
-      </c>
-      <c r="D151" s="74" t="s">
-        <v>37</v>
-      </c>
-      <c r="E151" s="75"/>
-      <c r="F151" s="76"/>
-      <c r="G151" s="9">
-        <f>SUM(G152:G153)</f>
-        <v>0</v>
-      </c>
-      <c r="H151" s="77"/>
-      <c r="I151" s="11"/>
-      <c r="J151" s="12"/>
-      <c r="K151" s="79"/>
-      <c r="L151" s="80"/>
-      <c r="M151" s="81"/>
+      <c r="M150" s="163"/>
+    </row>
+    <row r="151" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C151" s="16"/>
+      <c r="D151" s="17"/>
+      <c r="E151" s="151" t="s">
+        <v>63</v>
+      </c>
+      <c r="F151" s="52"/>
+      <c r="G151" s="82"/>
+      <c r="H151" s="21"/>
+      <c r="I151" s="24"/>
+      <c r="J151" s="82"/>
+      <c r="K151" s="21"/>
+      <c r="L151" s="24"/>
+      <c r="M151" s="163"/>
     </row>
     <row r="152" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C152" s="90"/>
-      <c r="D152" s="44">
-        <v>1</v>
-      </c>
-      <c r="E152" s="91" t="s">
-        <v>38</v>
-      </c>
-      <c r="F152" s="92"/>
+      <c r="C152" s="16"/>
+      <c r="D152" s="83"/>
+      <c r="E152" s="151" t="s">
+        <v>64</v>
+      </c>
+      <c r="F152" s="52"/>
       <c r="G152" s="82"/>
       <c r="H152" s="21"/>
-      <c r="I152" s="22"/>
-      <c r="J152" s="38"/>
-      <c r="K152" s="39"/>
-      <c r="L152" s="40"/>
-      <c r="M152" s="137"/>
-    </row>
-    <row r="153" spans="1:13" ht="17.25" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I152" s="24"/>
+      <c r="J152" s="82"/>
+      <c r="K152" s="21"/>
+      <c r="L152" s="24"/>
+      <c r="M152" s="162"/>
+    </row>
+    <row r="153" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C153" s="93"/>
-      <c r="D153" s="58">
+      <c r="C153" s="87"/>
+      <c r="D153" s="88"/>
+      <c r="E153" s="151" t="s">
+        <v>65</v>
+      </c>
+      <c r="F153" s="52"/>
+      <c r="G153" s="82"/>
+      <c r="H153" s="21"/>
+      <c r="I153" s="24"/>
+      <c r="J153" s="82"/>
+      <c r="K153" s="21"/>
+      <c r="L153" s="24"/>
+      <c r="M153" s="164"/>
+    </row>
+    <row r="154" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C154" s="87"/>
+      <c r="D154" s="88"/>
+      <c r="E154" s="151" t="s">
+        <v>68</v>
+      </c>
+      <c r="F154" s="52"/>
+      <c r="G154" s="82"/>
+      <c r="H154" s="86"/>
+      <c r="I154" s="86"/>
+      <c r="J154" s="82"/>
+      <c r="K154" s="86"/>
+      <c r="L154" s="24"/>
+      <c r="M154" s="164"/>
+    </row>
+    <row r="155" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C155" s="87"/>
+      <c r="D155" s="88"/>
+      <c r="E155" s="151" t="s">
+        <v>70</v>
+      </c>
+      <c r="F155" s="52"/>
+      <c r="G155" s="82"/>
+      <c r="H155" s="86"/>
+      <c r="I155" s="86"/>
+      <c r="J155" s="85"/>
+      <c r="K155" s="86"/>
+      <c r="L155" s="24"/>
+      <c r="M155" s="164"/>
+    </row>
+    <row r="156" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C156" s="87"/>
+      <c r="D156" s="88"/>
+      <c r="E156" s="151" t="s">
+        <v>71</v>
+      </c>
+      <c r="F156" s="52"/>
+      <c r="G156" s="82"/>
+      <c r="H156" s="86"/>
+      <c r="I156" s="86"/>
+      <c r="J156" s="85"/>
+      <c r="K156" s="86"/>
+      <c r="L156" s="24"/>
+      <c r="M156" s="165"/>
+    </row>
+    <row r="157" spans="1:13" ht="17.25" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C157" s="87"/>
+      <c r="D157" s="88"/>
+      <c r="E157" s="151" t="s">
+        <v>74</v>
+      </c>
+      <c r="F157" s="52"/>
+      <c r="G157" s="82"/>
+      <c r="H157" s="59"/>
+      <c r="I157" s="59"/>
+      <c r="J157" s="85"/>
+      <c r="K157" s="86"/>
+      <c r="L157" s="24"/>
+      <c r="M157" s="166"/>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C158" s="73">
+        <v>7</v>
+      </c>
+      <c r="D158" s="74" t="s">
+        <v>37</v>
+      </c>
+      <c r="E158" s="75"/>
+      <c r="F158" s="76"/>
+      <c r="G158" s="9">
+        <f>SUM(G159:G160)</f>
+        <v>0</v>
+      </c>
+      <c r="H158" s="77"/>
+      <c r="I158" s="11"/>
+      <c r="J158" s="12"/>
+      <c r="K158" s="79"/>
+      <c r="L158" s="80"/>
+      <c r="M158" s="81"/>
+    </row>
+    <row r="159" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C159" s="90"/>
+      <c r="D159" s="44">
+        <v>1</v>
+      </c>
+      <c r="E159" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="F159" s="92"/>
+      <c r="G159" s="82"/>
+      <c r="H159" s="21"/>
+      <c r="I159" s="22"/>
+      <c r="J159" s="38"/>
+      <c r="K159" s="39"/>
+      <c r="L159" s="40"/>
+      <c r="M159" s="137"/>
+    </row>
+    <row r="160" spans="1:13" ht="17.25" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C160" s="93"/>
+      <c r="D160" s="58">
         <v>2</v>
       </c>
-      <c r="E153" s="94" t="s">
+      <c r="E160" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="F153" s="95"/>
-      <c r="G153" s="89"/>
-      <c r="H153" s="59"/>
-      <c r="I153" s="60"/>
-      <c r="J153" s="70"/>
-      <c r="K153" s="31"/>
-      <c r="L153" s="32"/>
-      <c r="M153" s="96"/>
-    </row>
-    <row r="154" spans="1:13" s="110" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="103"/>
-      <c r="B154" s="104"/>
-      <c r="C154" s="116"/>
-      <c r="D154" s="97"/>
-      <c r="E154" s="98"/>
-      <c r="F154" s="117"/>
-      <c r="G154" s="99"/>
-      <c r="H154" s="100"/>
-      <c r="I154" s="100"/>
-      <c r="J154" s="118"/>
-      <c r="K154" s="101"/>
-      <c r="L154" s="101"/>
-      <c r="M154" s="116"/>
-    </row>
-    <row r="155" spans="1:13" s="110" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="103"/>
-      <c r="B155" s="104"/>
-      <c r="C155" s="119"/>
-      <c r="D155" s="119"/>
-      <c r="E155" s="119"/>
-      <c r="F155" s="120" t="s">
+      <c r="F160" s="95"/>
+      <c r="G160" s="89"/>
+      <c r="H160" s="59"/>
+      <c r="I160" s="60"/>
+      <c r="J160" s="70"/>
+      <c r="K160" s="31"/>
+      <c r="L160" s="32"/>
+      <c r="M160" s="96"/>
+    </row>
+    <row r="161" spans="1:13" s="110" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="103"/>
+      <c r="B161" s="104"/>
+      <c r="C161" s="116"/>
+      <c r="D161" s="97"/>
+      <c r="E161" s="98"/>
+      <c r="F161" s="117"/>
+      <c r="G161" s="99"/>
+      <c r="H161" s="100"/>
+      <c r="I161" s="100"/>
+      <c r="J161" s="118"/>
+      <c r="K161" s="101"/>
+      <c r="L161" s="101"/>
+      <c r="M161" s="116"/>
+    </row>
+    <row r="162" spans="1:13" s="110" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="103"/>
+      <c r="B162" s="104"/>
+      <c r="C162" s="119"/>
+      <c r="D162" s="119"/>
+      <c r="E162" s="119"/>
+      <c r="F162" s="120" t="s">
         <v>40</v>
       </c>
-      <c r="G155" s="121">
-        <f>G151+G133+G124+G82+G50+G15+G10+G7</f>
-        <v>334</v>
-      </c>
-      <c r="H155" s="119"/>
-      <c r="I155" s="119"/>
-      <c r="J155" s="122"/>
-      <c r="K155" s="119"/>
-      <c r="L155" s="119"/>
-      <c r="M155" s="119"/>
-    </row>
-    <row r="156" spans="1:13" s="110" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="103"/>
-      <c r="B156" s="104"/>
-      <c r="C156" s="119"/>
-      <c r="D156" s="119"/>
-      <c r="E156" s="119"/>
-      <c r="F156" s="120" t="s">
+      <c r="G162" s="121">
+        <f>G158+G140+G131+G89+G59+G15+G10+G7</f>
+        <v>328</v>
+      </c>
+      <c r="H162" s="119"/>
+      <c r="I162" s="119"/>
+      <c r="J162" s="122"/>
+      <c r="K162" s="119"/>
+      <c r="L162" s="119"/>
+      <c r="M162" s="119"/>
+    </row>
+    <row r="163" spans="1:13" s="110" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="103"/>
+      <c r="B163" s="104"/>
+      <c r="C163" s="119"/>
+      <c r="D163" s="119"/>
+      <c r="E163" s="119"/>
+      <c r="F163" s="120" t="s">
         <v>41</v>
       </c>
-      <c r="G156" s="121">
-        <f>G155/168</f>
-        <v>1.9880952380952381</v>
-      </c>
-      <c r="H156" s="119"/>
-      <c r="I156" s="119"/>
-      <c r="J156" s="120"/>
-      <c r="K156" s="119"/>
-      <c r="L156" s="119"/>
-      <c r="M156" s="119"/>
+      <c r="G163" s="121">
+        <f>G162/168</f>
+        <v>1.9523809523809523</v>
+      </c>
+      <c r="H163" s="119"/>
+      <c r="I163" s="119"/>
+      <c r="J163" s="120"/>
+      <c r="K163" s="119"/>
+      <c r="L163" s="119"/>
+      <c r="M163" s="119"/>
     </row>
   </sheetData>
   <mergeCells count="2">
